--- a/main/exampleSheet7.xlsx
+++ b/main/exampleSheet7.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="133">
   <si>
     <t>Evaluation</t>
   </si>
@@ -277,6 +277,12 @@
     <t>Expectation Code</t>
   </si>
   <si>
+    <t>Evaluation Type</t>
+  </si>
+  <si>
+    <t>Shortform and Colour</t>
+  </si>
+  <si>
     <t>A1</t>
   </si>
   <si>
@@ -289,6 +295,12 @@
     <t>A1.0</t>
   </si>
   <si>
+    <t>Overall Strand</t>
+  </si>
+  <si>
+    <t>O.X</t>
+  </si>
+  <si>
     <t>A2</t>
   </si>
   <si>
@@ -298,6 +310,9 @@
     <t>A2.0</t>
   </si>
   <si>
+    <t>S</t>
+  </si>
+  <si>
     <t>A3</t>
   </si>
   <si>
@@ -307,6 +322,9 @@
     <t>A3.0</t>
   </si>
   <si>
+    <t>E</t>
+  </si>
+  <si>
     <t>A4</t>
   </si>
   <si>
@@ -316,20 +334,38 @@
     <t>A4.0</t>
   </si>
   <si>
+    <t>Test</t>
+  </si>
+  <si>
     <t>Listening to Understand: listen in order to understand and respond appropriately in a variety of situations for a variety of purposes</t>
+  </si>
+  <si>
+    <t>Assignment</t>
   </si>
   <si>
     <t>Speaking to Communicate: use speaking skills and strategies appropriately to communicate
 with different audiences for a variety of purpose</t>
   </si>
   <si>
+    <t>Project</t>
+  </si>
+  <si>
     <t>Reflecting on Skills and Strategies: reflect on and identify their strengths as listeners and speakers, areas for improvement, and the strategies they found most helpful in oral communication situations</t>
   </si>
   <si>
     <t>A1.3</t>
   </si>
   <si>
+    <t>Task</t>
+  </si>
+  <si>
+    <t>t</t>
+  </si>
+  <si>
     <t>Reading for Meaning: read and demonstrate an understanding of a variety of literary, informational, and graphic texts, using a range of strategies to construct meaning</t>
+  </si>
+  <si>
+    <t>Quiz</t>
   </si>
   <si>
     <t>Understanding Form and Style: recognize a variety of text forms, text features, and stylistic elements and demonstrate understanding of how they help communicate meaning</t>
@@ -381,7 +417,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="27">
+  <fonts count="36">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -436,6 +472,12 @@
     </font>
     <font>
       <b/>
+      <color rgb="FF34A853"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <color theme="8"/>
       <name val="Arial"/>
       <scheme val="minor"/>
@@ -447,6 +489,11 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <color rgb="FFF1C232"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <color rgb="FF34A853"/>
       <name val="Arial"/>
     </font>
@@ -457,11 +504,6 @@
     </font>
     <font>
       <color rgb="FFFF6D01"/>
-      <name val="Arial"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <color rgb="FFF1C232"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
@@ -499,6 +541,11 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <color rgb="FFC27BA0"/>
+      <name val="Arial"/>
+    </font>
+    <font>
       <color theme="5"/>
       <name val="Arial"/>
       <scheme val="minor"/>
@@ -509,9 +556,40 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <color rgb="FF6AA84F"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <b/>
+      <color theme="1"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <b/>
+      <color rgb="FF9900FF"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <color rgb="FFC27BA0"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <color rgb="FFFF00FF"/>
+      <name val="Arial"/>
+    </font>
+    <font>
       <color rgb="FF4285F4"/>
       <name val="Arial"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <color rgb="FF0000FF"/>
+      <name val="Arial"/>
     </font>
     <font>
       <u/>
@@ -541,7 +619,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="56">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -599,55 +677,55 @@
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment vertical="bottom"/>
+      <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="14" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="13" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="0" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="left" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="18" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="15" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="14" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="14" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="19" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="18" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
     <xf borderId="0" fillId="0" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="19" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="20" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
@@ -658,7 +736,10 @@
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="23" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="23" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="24" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
@@ -667,6 +748,33 @@
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="26" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="27" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="28" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="29" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="30" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="31" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="32" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="33" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="34" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="35" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -1983,290 +2091,290 @@
       <c r="B37" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="C37" s="12" t="s">
+      <c r="C37" s="18" t="s">
         <v>59</v>
       </c>
       <c r="D37" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="F37" s="18" t="s">
+      <c r="F37" s="19" t="s">
         <v>61</v>
       </c>
-      <c r="G37" s="18" t="s">
+      <c r="G37" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="H37" s="18" t="s">
+      <c r="H37" s="19" t="s">
         <v>60</v>
       </c>
-      <c r="J37" s="19" t="s">
+      <c r="J37" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="K37" s="19" t="s">
+      <c r="K37" s="21" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="20" t="s">
+      <c r="A38" s="22" t="s">
         <v>54</v>
       </c>
-      <c r="B38" s="20" t="s">
+      <c r="B38" s="22" t="s">
         <v>65</v>
       </c>
-      <c r="D38" s="21" t="s">
+      <c r="D38" s="23" t="s">
         <v>66</v>
       </c>
-      <c r="F38" s="18" t="s">
+      <c r="F38" s="19" t="s">
         <v>67</v>
       </c>
-      <c r="G38" s="22">
+      <c r="G38" s="24">
         <v>70.0</v>
       </c>
-      <c r="H38" s="23" t="s">
+      <c r="H38" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="J38" s="24" t="s">
+      <c r="J38" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="K38" s="24" t="s">
+      <c r="K38" s="21" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="20" t="s">
+      <c r="A39" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="B39" s="20">
+      <c r="B39" s="22">
         <v>0.0</v>
       </c>
-      <c r="C39" s="25" t="s">
+      <c r="C39" s="26" t="s">
         <v>70</v>
       </c>
       <c r="D39" s="7"/>
-      <c r="F39" s="18" t="s">
+      <c r="F39" s="19" t="s">
         <v>71</v>
       </c>
-      <c r="G39" s="23">
+      <c r="G39" s="25">
         <v>15.0</v>
       </c>
-      <c r="H39" s="26"/>
-      <c r="J39" s="27"/>
-      <c r="K39" s="27"/>
+      <c r="H39" s="27"/>
+      <c r="J39" s="28"/>
+      <c r="K39" s="28"/>
     </row>
     <row r="40">
-      <c r="A40" s="20" t="s">
+      <c r="A40" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="B40" s="20">
+      <c r="B40" s="22">
         <v>25.0</v>
       </c>
-      <c r="C40" s="25" t="s">
+      <c r="C40" s="26" t="s">
         <v>70</v>
       </c>
       <c r="D40" s="7"/>
-      <c r="F40" s="18" t="s">
+      <c r="F40" s="19" t="s">
         <v>72</v>
       </c>
-      <c r="G40" s="23">
+      <c r="G40" s="25">
         <v>15.0</v>
       </c>
-      <c r="H40" s="26"/>
-      <c r="J40" s="27"/>
-      <c r="K40" s="27"/>
+      <c r="H40" s="27"/>
+      <c r="J40" s="28"/>
+      <c r="K40" s="28"/>
     </row>
     <row r="41">
-      <c r="A41" s="20" t="s">
+      <c r="A41" s="22" t="s">
         <v>73</v>
       </c>
-      <c r="B41" s="20">
+      <c r="B41" s="22">
         <v>35.0</v>
       </c>
-      <c r="C41" s="28"/>
-      <c r="J41" s="27"/>
-      <c r="K41" s="27"/>
+      <c r="C41" s="29"/>
+      <c r="J41" s="28"/>
+      <c r="K41" s="28"/>
     </row>
     <row r="42">
-      <c r="A42" s="20" t="s">
+      <c r="A42" s="22" t="s">
         <v>74</v>
       </c>
-      <c r="B42" s="20">
+      <c r="B42" s="22">
         <v>44.0</v>
       </c>
-      <c r="C42" s="28"/>
-      <c r="J42" s="27"/>
-      <c r="K42" s="27"/>
+      <c r="C42" s="29"/>
+      <c r="J42" s="28"/>
+      <c r="K42" s="28"/>
     </row>
     <row r="43">
-      <c r="A43" s="20" t="s">
+      <c r="A43" s="22" t="s">
         <v>75</v>
       </c>
-      <c r="B43" s="20">
+      <c r="B43" s="22">
         <v>52.0</v>
       </c>
-      <c r="C43" s="21"/>
+      <c r="C43" s="23"/>
       <c r="D43" s="13"/>
       <c r="E43" s="13"/>
       <c r="F43" s="13"/>
       <c r="G43" s="14"/>
-      <c r="J43" s="27"/>
-      <c r="K43" s="27"/>
+      <c r="J43" s="28"/>
+      <c r="K43" s="28"/>
     </row>
     <row r="44">
-      <c r="A44" s="20">
+      <c r="A44" s="22">
         <v>1.0</v>
       </c>
-      <c r="B44" s="20">
+      <c r="B44" s="22">
         <v>55.0</v>
       </c>
-      <c r="C44" s="21"/>
+      <c r="C44" s="23"/>
       <c r="D44" s="13"/>
       <c r="E44" s="14"/>
       <c r="F44" s="14"/>
       <c r="G44" s="14"/>
-      <c r="J44" s="27"/>
-      <c r="K44" s="27"/>
+      <c r="J44" s="28"/>
+      <c r="K44" s="28"/>
     </row>
     <row r="45">
-      <c r="A45" s="20" t="s">
+      <c r="A45" s="22" t="s">
         <v>76</v>
       </c>
-      <c r="B45" s="20">
+      <c r="B45" s="22">
         <v>58.0</v>
       </c>
-      <c r="C45" s="11"/>
+      <c r="C45" s="23"/>
       <c r="D45" s="14"/>
-      <c r="J45" s="27"/>
-      <c r="K45" s="27"/>
+      <c r="J45" s="28"/>
+      <c r="K45" s="28"/>
     </row>
     <row r="46">
-      <c r="A46" s="20" t="s">
+      <c r="A46" s="22" t="s">
         <v>77</v>
       </c>
-      <c r="B46" s="20">
+      <c r="B46" s="22">
         <v>62.0</v>
       </c>
-      <c r="C46" s="11"/>
+      <c r="C46" s="23"/>
       <c r="D46" s="14"/>
-      <c r="J46" s="27"/>
-      <c r="K46" s="27"/>
+      <c r="J46" s="28"/>
+      <c r="K46" s="28"/>
     </row>
     <row r="47">
-      <c r="A47" s="20">
+      <c r="A47" s="22">
         <v>2.0</v>
       </c>
-      <c r="B47" s="20">
+      <c r="B47" s="22">
         <v>65.0</v>
       </c>
-      <c r="C47" s="11"/>
+      <c r="C47" s="23"/>
       <c r="D47" s="14"/>
-      <c r="J47" s="27"/>
-      <c r="K47" s="27"/>
+      <c r="J47" s="28"/>
+      <c r="K47" s="28"/>
     </row>
     <row r="48">
-      <c r="A48" s="20" t="s">
+      <c r="A48" s="22" t="s">
         <v>78</v>
       </c>
-      <c r="B48" s="20">
+      <c r="B48" s="22">
         <v>68.0</v>
       </c>
-      <c r="C48" s="28"/>
+      <c r="C48" s="29"/>
       <c r="D48" s="14"/>
-      <c r="J48" s="27"/>
-      <c r="K48" s="27"/>
+      <c r="J48" s="28"/>
+      <c r="K48" s="28"/>
     </row>
     <row r="49">
-      <c r="A49" s="20" t="s">
+      <c r="A49" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="B49" s="20">
+      <c r="B49" s="22">
         <v>72.0</v>
       </c>
-      <c r="C49" s="11"/>
+      <c r="C49" s="23"/>
       <c r="D49" s="14"/>
       <c r="E49" s="14"/>
       <c r="F49" s="14"/>
-      <c r="J49" s="27"/>
-      <c r="K49" s="27"/>
+      <c r="J49" s="28"/>
+      <c r="K49" s="28"/>
     </row>
     <row r="50">
-      <c r="A50" s="20">
+      <c r="A50" s="22">
         <v>3.0</v>
       </c>
-      <c r="B50" s="20">
+      <c r="B50" s="22">
         <v>75.0</v>
       </c>
-      <c r="C50" s="11"/>
+      <c r="C50" s="23"/>
       <c r="D50" s="14"/>
       <c r="E50" s="14"/>
       <c r="F50" s="14"/>
-      <c r="J50" s="27"/>
-      <c r="K50" s="27"/>
+      <c r="J50" s="28"/>
+      <c r="K50" s="28"/>
     </row>
     <row r="51">
-      <c r="A51" s="20" t="s">
+      <c r="A51" s="22" t="s">
         <v>79</v>
       </c>
-      <c r="B51" s="20">
+      <c r="B51" s="22">
         <v>78.0</v>
       </c>
-      <c r="C51" s="11"/>
+      <c r="C51" s="23"/>
       <c r="D51" s="14"/>
       <c r="E51" s="14"/>
       <c r="F51" s="14"/>
-      <c r="J51" s="27"/>
-      <c r="K51" s="27"/>
+      <c r="J51" s="28"/>
+      <c r="K51" s="28"/>
     </row>
     <row r="52">
-      <c r="A52" s="29" t="s">
+      <c r="A52" s="30" t="s">
         <v>52</v>
       </c>
-      <c r="B52" s="29">
+      <c r="B52" s="30">
         <v>80.0</v>
       </c>
-      <c r="C52" s="30" t="s">
+      <c r="C52" s="31" t="s">
         <v>70</v>
       </c>
       <c r="D52" s="14"/>
       <c r="E52" s="14"/>
       <c r="F52" s="14"/>
-      <c r="J52" s="27"/>
-      <c r="K52" s="27"/>
+      <c r="J52" s="28"/>
+      <c r="K52" s="28"/>
     </row>
     <row r="53">
-      <c r="A53" s="20" t="s">
+      <c r="A53" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="B53" s="20">
+      <c r="B53" s="22">
         <v>86.0</v>
       </c>
-      <c r="C53" s="11"/>
+      <c r="C53" s="23"/>
       <c r="D53" s="14"/>
       <c r="E53" s="14"/>
       <c r="F53" s="14"/>
-      <c r="J53" s="27"/>
-      <c r="K53" s="27"/>
+      <c r="J53" s="28"/>
+      <c r="K53" s="28"/>
     </row>
     <row r="54">
-      <c r="A54" s="29">
+      <c r="A54" s="30">
         <v>4.0</v>
       </c>
-      <c r="B54" s="29">
+      <c r="B54" s="30">
         <v>91.0</v>
       </c>
-      <c r="C54" s="11"/>
+      <c r="C54" s="23"/>
       <c r="D54" s="14"/>
       <c r="E54" s="14"/>
       <c r="F54" s="14"/>
-      <c r="J54" s="27"/>
-      <c r="K54" s="27"/>
+      <c r="J54" s="28"/>
+      <c r="K54" s="28"/>
     </row>
     <row r="55">
-      <c r="A55" s="31" t="s">
+      <c r="A55" s="32" t="s">
         <v>53</v>
       </c>
-      <c r="B55" s="20">
+      <c r="B55" s="22">
         <v>94.0</v>
       </c>
-      <c r="C55" s="30" t="s">
+      <c r="C55" s="31" t="s">
         <v>70</v>
       </c>
       <c r="D55" s="14"/>
@@ -2274,317 +2382,371 @@
       <c r="F55" s="14"/>
     </row>
     <row r="56">
-      <c r="A56" s="31" t="s">
+      <c r="A56" s="32" t="s">
         <v>50</v>
       </c>
-      <c r="B56" s="32" t="s">
+      <c r="B56" s="33" t="s">
         <v>80</v>
       </c>
-      <c r="C56" s="33"/>
+      <c r="C56" s="34"/>
     </row>
     <row r="57">
-      <c r="A57" s="31" t="s">
+      <c r="A57" s="32" t="s">
         <v>51</v>
       </c>
-      <c r="B57" s="32" t="s">
+      <c r="B57" s="33" t="s">
         <v>81</v>
       </c>
-      <c r="C57" s="34" t="s">
+      <c r="C57" s="35" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="35"/>
-      <c r="B58" s="36"/>
-      <c r="C58" s="33"/>
+      <c r="A58" s="36"/>
+      <c r="B58" s="37"/>
+      <c r="C58" s="34"/>
     </row>
     <row r="59">
-      <c r="A59" s="35"/>
-      <c r="B59" s="36"/>
-      <c r="C59" s="33"/>
+      <c r="A59" s="36"/>
+      <c r="B59" s="37"/>
+      <c r="C59" s="34"/>
     </row>
     <row r="60">
-      <c r="A60" s="37" t="s">
+      <c r="A60" s="38" t="s">
         <v>82</v>
       </c>
-      <c r="B60" s="38" t="s">
+      <c r="B60" s="39" t="s">
         <v>83</v>
       </c>
-      <c r="C60" s="37" t="s">
+      <c r="C60" s="38" t="s">
         <v>84</v>
       </c>
-      <c r="F60" s="39" t="s">
+      <c r="F60" s="40" t="s">
         <v>85</v>
       </c>
-      <c r="G60" s="39" t="s">
+      <c r="G60" s="40" t="s">
         <v>86</v>
       </c>
-      <c r="H60" s="39" t="s">
+      <c r="H60" s="40" t="s">
         <v>87</v>
       </c>
+      <c r="K60" s="41" t="s">
+        <v>88</v>
+      </c>
+      <c r="L60" s="42" t="s">
+        <v>89</v>
+      </c>
     </row>
     <row r="61">
-      <c r="A61" s="40" t="s">
-        <v>88</v>
-      </c>
-      <c r="B61" s="41">
+      <c r="A61" s="43" t="s">
+        <v>90</v>
+      </c>
+      <c r="B61" s="44">
         <v>15.0</v>
       </c>
-      <c r="C61" s="41" t="s">
-        <v>89</v>
+      <c r="C61" s="44" t="s">
+        <v>91</v>
       </c>
       <c r="F61" s="16" t="s">
-        <v>88</v>
-      </c>
-      <c r="G61" s="39" t="s">
         <v>90</v>
       </c>
+      <c r="G61" s="40" t="s">
+        <v>92</v>
+      </c>
       <c r="H61" s="16" t="s">
-        <v>91</v>
+        <v>93</v>
+      </c>
+      <c r="K61" s="41" t="s">
+        <v>94</v>
+      </c>
+      <c r="L61" s="45" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="62">
-      <c r="A62" s="40" t="s">
+      <c r="A62" s="43" t="s">
+        <v>96</v>
+      </c>
+      <c r="B62" s="44">
+        <v>35.0</v>
+      </c>
+      <c r="C62" s="44" t="s">
+        <v>97</v>
+      </c>
+      <c r="F62" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="G62" s="40" t="s">
         <v>92</v>
       </c>
-      <c r="B62" s="41">
-        <v>35.0</v>
-      </c>
-      <c r="C62" s="41" t="s">
-        <v>93</v>
-      </c>
-      <c r="F62" s="16" t="s">
+      <c r="H62" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="K62" s="41" t="s">
+        <v>72</v>
+      </c>
+      <c r="L62" s="46" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="43" t="s">
+        <v>100</v>
+      </c>
+      <c r="B63" s="44">
+        <v>45.0</v>
+      </c>
+      <c r="C63" s="44" t="s">
+        <v>101</v>
+      </c>
+      <c r="F63" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="G63" s="40" t="s">
         <v>92</v>
       </c>
-      <c r="G62" s="39" t="s">
-        <v>90</v>
-      </c>
-      <c r="H62" s="16" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" s="40" t="s">
-        <v>95</v>
-      </c>
-      <c r="B63" s="41">
-        <v>45.0</v>
-      </c>
-      <c r="C63" s="41" t="s">
-        <v>96</v>
-      </c>
-      <c r="F63" s="16" t="s">
-        <v>95</v>
-      </c>
-      <c r="G63" s="39" t="s">
-        <v>90</v>
-      </c>
       <c r="H63" s="16" t="s">
-        <v>97</v>
+        <v>102</v>
+      </c>
+      <c r="K63" s="41" t="s">
+        <v>71</v>
+      </c>
+      <c r="L63" s="47" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="64">
-      <c r="A64" s="40" t="s">
-        <v>98</v>
-      </c>
-      <c r="B64" s="41">
+      <c r="A64" s="43" t="s">
+        <v>104</v>
+      </c>
+      <c r="B64" s="44">
         <v>5.0</v>
       </c>
-      <c r="C64" s="41" t="s">
-        <v>99</v>
+      <c r="C64" s="44" t="s">
+        <v>105</v>
       </c>
       <c r="F64" s="16" t="s">
-        <v>98</v>
-      </c>
-      <c r="G64" s="39" t="s">
-        <v>90</v>
+        <v>104</v>
+      </c>
+      <c r="G64" s="40" t="s">
+        <v>92</v>
       </c>
       <c r="H64" s="16" t="s">
-        <v>100</v>
+        <v>106</v>
+      </c>
+      <c r="K64" s="48" t="s">
+        <v>107</v>
+      </c>
+      <c r="L64" s="49" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="65">
       <c r="F65" s="16" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G65" s="16" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="H65" s="16" t="s">
         <v>16</v>
       </c>
+      <c r="K65" s="48" t="s">
+        <v>109</v>
+      </c>
+      <c r="L65" s="50" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="66">
       <c r="F66" s="16" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G66" s="16" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="H66" s="16" t="s">
         <v>17</v>
       </c>
+      <c r="K66" s="48" t="s">
+        <v>111</v>
+      </c>
+      <c r="L66" s="50" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="67">
       <c r="F67" s="16" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G67" s="16" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="H67" s="16" t="s">
+        <v>113</v>
+      </c>
+      <c r="K67" s="48" t="s">
+        <v>114</v>
+      </c>
+      <c r="L67" s="50" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="F68" s="51" t="s">
+        <v>96</v>
+      </c>
+      <c r="G68" s="16" t="s">
+        <v>116</v>
+      </c>
+      <c r="H68" s="51" t="s">
+        <v>18</v>
+      </c>
+      <c r="K68" s="48" t="s">
+        <v>117</v>
+      </c>
+      <c r="L68" s="52" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="F69" s="51" t="s">
+        <v>96</v>
+      </c>
+      <c r="G69" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="H69" s="51" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="F70" s="51" t="s">
+        <v>96</v>
+      </c>
+      <c r="G70" s="16" t="s">
+        <v>119</v>
+      </c>
+      <c r="H70" s="51" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="F71" s="51" t="s">
+        <v>96</v>
+      </c>
+      <c r="G71" s="16" t="s">
+        <v>120</v>
+      </c>
+      <c r="H71" s="51" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="F72" s="51" t="s">
+        <v>100</v>
+      </c>
+      <c r="G72" s="16" t="s">
+        <v>122</v>
+      </c>
+      <c r="H72" s="51" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="F73" s="51" t="s">
+        <v>100</v>
+      </c>
+      <c r="G73" s="16" t="s">
+        <v>123</v>
+      </c>
+      <c r="H73" s="51" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="F74" s="51" t="s">
+        <v>100</v>
+      </c>
+      <c r="G74" s="16" t="s">
+        <v>124</v>
+      </c>
+      <c r="H74" s="51" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="F75" s="51" t="s">
+        <v>100</v>
+      </c>
+      <c r="G75" s="16" t="s">
+        <v>125</v>
+      </c>
+      <c r="H75" s="51" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="F76" s="51" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="68">
-      <c r="F68" s="42" t="s">
-        <v>92</v>
-      </c>
-      <c r="G68" s="16" t="s">
-        <v>105</v>
-      </c>
-      <c r="H68" s="42" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="F69" s="42" t="s">
-        <v>92</v>
-      </c>
-      <c r="G69" s="16" t="s">
-        <v>106</v>
-      </c>
-      <c r="H69" s="42" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="F70" s="42" t="s">
-        <v>92</v>
-      </c>
-      <c r="G70" s="16" t="s">
-        <v>107</v>
-      </c>
-      <c r="H70" s="42" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="F71" s="42" t="s">
-        <v>92</v>
-      </c>
-      <c r="G71" s="16" t="s">
-        <v>108</v>
-      </c>
-      <c r="H71" s="42" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="F72" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="G72" s="16" t="s">
-        <v>110</v>
-      </c>
-      <c r="H72" s="42" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="F73" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="G73" s="16" t="s">
-        <v>111</v>
-      </c>
-      <c r="H73" s="42" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="F74" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="G74" s="16" t="s">
-        <v>112</v>
-      </c>
-      <c r="H74" s="42" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="F75" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="G75" s="16" t="s">
-        <v>113</v>
-      </c>
-      <c r="H75" s="42" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="F76" s="42" t="s">
-        <v>98</v>
-      </c>
       <c r="G76" s="16" t="s">
-        <v>114</v>
-      </c>
-      <c r="H76" s="42" t="s">
-        <v>115</v>
+        <v>126</v>
+      </c>
+      <c r="H76" s="51" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="77">
-      <c r="F77" s="42" t="s">
-        <v>98</v>
+      <c r="F77" s="51" t="s">
+        <v>104</v>
       </c>
       <c r="G77" s="16" t="s">
-        <v>116</v>
-      </c>
-      <c r="H77" s="42" t="s">
-        <v>117</v>
+        <v>128</v>
+      </c>
+      <c r="H77" s="51" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="78">
-      <c r="F78" s="42" t="s">
-        <v>98</v>
+      <c r="F78" s="51" t="s">
+        <v>104</v>
       </c>
       <c r="G78" s="16" t="s">
-        <v>118</v>
-      </c>
-      <c r="H78" s="42" t="s">
+        <v>130</v>
+      </c>
+      <c r="H78" s="51" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="79">
-      <c r="F79" s="42" t="s">
-        <v>98</v>
+      <c r="F79" s="51" t="s">
+        <v>104</v>
       </c>
       <c r="G79" s="16" t="s">
-        <v>119</v>
-      </c>
-      <c r="H79" s="42" t="s">
-        <v>120</v>
+        <v>131</v>
+      </c>
+      <c r="H79" s="51" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="83">
-      <c r="B83" s="43"/>
-      <c r="C83" s="43"/>
-      <c r="D83" s="43"/>
-      <c r="E83" s="43"/>
+      <c r="B83" s="53"/>
+      <c r="C83" s="53"/>
+      <c r="D83" s="53"/>
+      <c r="E83" s="53"/>
     </row>
     <row r="84">
-      <c r="B84" s="44"/>
-      <c r="C84" s="45"/>
-      <c r="D84" s="44"/>
+      <c r="B84" s="54"/>
+      <c r="C84" s="55"/>
+      <c r="D84" s="54"/>
     </row>
     <row r="85">
-      <c r="B85" s="45"/>
-      <c r="C85" s="45"/>
+      <c r="B85" s="55"/>
+      <c r="C85" s="55"/>
     </row>
     <row r="86">
-      <c r="B86" s="44"/>
+      <c r="B86" s="54"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>

--- a/main/exampleSheet7.xlsx
+++ b/main/exampleSheet7.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="133">
   <si>
     <t>Evaluation</t>
   </si>
@@ -211,6 +211,9 @@
     <t>NM</t>
   </si>
   <si>
+    <t>*</t>
+  </si>
+  <si>
     <t>y</t>
   </si>
   <si>
@@ -221,9 +224,6 @@
   </si>
   <si>
     <t>Ms. Wick</t>
-  </si>
-  <si>
-    <t>*</t>
   </si>
   <si>
     <t>Exam</t>
@@ -2120,23 +2120,26 @@
       <c r="B38" s="22" t="s">
         <v>65</v>
       </c>
+      <c r="C38" s="12" t="s">
+        <v>66</v>
+      </c>
       <c r="D38" s="23" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F38" s="19" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G38" s="24">
         <v>70.0</v>
       </c>
       <c r="H38" s="25" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="J38" s="20" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K38" s="21" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="39">
@@ -2147,7 +2150,7 @@
         <v>0.0</v>
       </c>
       <c r="C39" s="26" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="D39" s="7"/>
       <c r="F39" s="19" t="s">
@@ -2168,7 +2171,7 @@
         <v>25.0</v>
       </c>
       <c r="C40" s="26" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="D40" s="7"/>
       <c r="F40" s="19" t="s">
@@ -2331,7 +2334,7 @@
         <v>80.0</v>
       </c>
       <c r="C52" s="31" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="D52" s="14"/>
       <c r="E52" s="14"/>
@@ -2375,7 +2378,7 @@
         <v>94.0</v>
       </c>
       <c r="C55" s="31" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="D55" s="14"/>
       <c r="E55" s="14"/>
@@ -2398,7 +2401,7 @@
         <v>81</v>
       </c>
       <c r="C57" s="35" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="58">

--- a/main/exampleSheet7.xlsx
+++ b/main/exampleSheet7.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="138">
   <si>
     <t>Evaluation</t>
   </si>
@@ -184,6 +184,36 @@
     <t>R-</t>
   </si>
   <si>
+    <t>Erickson,Berit</t>
+  </si>
+  <si>
+    <t>3+</t>
+  </si>
+  <si>
+    <t>2-</t>
+  </si>
+  <si>
+    <t>2+</t>
+  </si>
+  <si>
+    <t>4-/4</t>
+  </si>
+  <si>
+    <t>Richardson,Liam</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>Tremblay,Xavier</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>R+</t>
+  </si>
+  <si>
     <t>Level</t>
   </si>
   <si>
@@ -232,25 +262,10 @@
     <t>Summative</t>
   </si>
   <si>
-    <t>R</t>
-  </si>
-  <si>
-    <t>R+</t>
-  </si>
-  <si>
     <t>1-</t>
   </si>
   <si>
     <t>1+</t>
-  </si>
-  <si>
-    <t>2-</t>
-  </si>
-  <si>
-    <t>2+</t>
-  </si>
-  <si>
-    <t>3+</t>
   </si>
   <si>
     <t>97</t>
@@ -440,6 +455,10 @@
       <name val="Arial"/>
     </font>
     <font>
+      <color theme="1"/>
+      <name val="Arial"/>
+    </font>
+    <font>
       <b/>
       <color theme="1"/>
       <name val="Arial"/>
@@ -448,10 +467,6 @@
     <font>
       <color theme="1"/>
       <name val="Arial"/>
-    </font>
-    <font>
-      <color theme="1"/>
-      <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -498,6 +513,11 @@
       <name val="Arial"/>
     </font>
     <font>
+      <color rgb="FF34A853"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <color theme="8"/>
       <name val="Arial"/>
       <scheme val="minor"/>
@@ -509,11 +529,6 @@
     </font>
     <font>
       <color rgb="FFFF00FF"/>
-      <name val="Arial"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <color rgb="FF34A853"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
@@ -546,6 +561,10 @@
       <name val="Arial"/>
     </font>
     <font>
+      <color rgb="FFC27BA0"/>
+      <name val="Arial"/>
+    </font>
+    <font>
       <color theme="5"/>
       <name val="Arial"/>
       <scheme val="minor"/>
@@ -556,7 +575,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <color rgb="FF6AA84F"/>
       <name val="Arial"/>
     </font>
@@ -568,10 +586,6 @@
     <font>
       <b/>
       <color rgb="FF9900FF"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <color rgb="FFC27BA0"/>
       <name val="Arial"/>
     </font>
     <font>
@@ -619,7 +633,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="57">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -639,20 +653,23 @@
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
@@ -685,26 +702,29 @@
     <xf borderId="0" fillId="0" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" vertical="bottom"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="14" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
     <xf borderId="0" fillId="0" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="15" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="16" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="14" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
@@ -717,9 +737,6 @@
       <alignment horizontal="left" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="19" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
     <xf borderId="0" fillId="0" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
@@ -738,16 +755,16 @@
     <xf borderId="0" fillId="0" fontId="23" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="23" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="24" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="24" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="25" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="26" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="24" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="27" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -1480,52 +1497,179 @@
       <c r="AC6" s="3"/>
     </row>
     <row r="7">
-      <c r="A7" s="7"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
-      <c r="K7" s="4"/>
-      <c r="L7" s="4"/>
-      <c r="M7" s="4"/>
-      <c r="N7" s="4"/>
-      <c r="O7" s="4"/>
-      <c r="P7" s="4"/>
-      <c r="Q7" s="4"/>
-      <c r="R7" s="4"/>
-      <c r="S7" s="3"/>
-      <c r="T7" s="3"/>
-      <c r="U7" s="3"/>
-      <c r="V7" s="3"/>
-      <c r="W7" s="3"/>
-      <c r="X7" s="3"/>
+      <c r="A7" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B7" s="2">
+        <v>4.0</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="J7" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="K7" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="L7" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="M7" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="N7" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="O7" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="P7" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q7" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="R7" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="S7" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="T7" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="U7" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="V7" s="2">
+        <v>4.0</v>
+      </c>
+      <c r="W7" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="X7" s="2">
+        <v>4.0</v>
+      </c>
       <c r="Y7" s="3"/>
       <c r="Z7" s="3"/>
       <c r="AA7" s="3"/>
       <c r="AB7" s="3"/>
       <c r="AC7" s="3"/>
+      <c r="AD7" s="3"/>
+      <c r="AE7" s="3"/>
+      <c r="AF7" s="3"/>
+      <c r="AG7" s="3"/>
+      <c r="AH7" s="3"/>
+      <c r="AI7" s="3"/>
+      <c r="AJ7" s="3"/>
+      <c r="AK7" s="3"/>
+      <c r="AL7" s="3"/>
+      <c r="AM7" s="3"/>
+      <c r="AN7" s="3"/>
+      <c r="AO7" s="3"/>
+      <c r="AP7" s="3"/>
+      <c r="AQ7" s="3"/>
+      <c r="AR7" s="3"/>
+      <c r="AS7" s="3"/>
+      <c r="AT7" s="3"/>
+      <c r="AU7" s="3"/>
+      <c r="AV7" s="3"/>
+      <c r="AW7" s="3"/>
+      <c r="AX7" s="3"/>
+      <c r="AY7" s="3"/>
     </row>
     <row r="8">
-      <c r="F8" s="8"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="9"/>
-      <c r="I8" s="9"/>
-      <c r="J8" s="9"/>
-      <c r="K8" s="9"/>
-      <c r="L8" s="9"/>
-      <c r="M8" s="9"/>
-      <c r="N8" s="9"/>
-      <c r="O8" s="9"/>
-      <c r="P8" s="9"/>
-      <c r="Q8" s="9"/>
-      <c r="R8" s="9"/>
-      <c r="S8" s="10"/>
-      <c r="T8" s="10"/>
-      <c r="U8" s="10"/>
-      <c r="V8" s="3"/>
-      <c r="W8" s="3"/>
-      <c r="X8" s="3"/>
+      <c r="A8" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C8" s="2">
+        <v>4.0</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E8" s="2">
+        <v>4.0</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="H8" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="I8" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="J8" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="K8" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="L8" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="M8" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="N8" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="O8" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="P8" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q8" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="R8" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="S8" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="T8" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="U8" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="V8" s="2">
+        <v>4.0</v>
+      </c>
+      <c r="W8" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="X8" s="2" t="s">
+        <v>50</v>
+      </c>
       <c r="Y8" s="3"/>
       <c r="Z8" s="3"/>
       <c r="AA8" s="3"/>
@@ -1533,25 +1677,78 @@
       <c r="AC8" s="3"/>
     </row>
     <row r="9">
-      <c r="F9" s="8"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="9"/>
-      <c r="I9" s="9"/>
-      <c r="J9" s="9"/>
-      <c r="K9" s="9"/>
-      <c r="L9" s="9"/>
-      <c r="M9" s="9"/>
-      <c r="N9" s="9"/>
-      <c r="O9" s="9"/>
-      <c r="P9" s="9"/>
-      <c r="Q9" s="9"/>
-      <c r="R9" s="9"/>
-      <c r="S9" s="10"/>
-      <c r="T9" s="10"/>
-      <c r="U9" s="10"/>
-      <c r="V9" s="3"/>
-      <c r="W9" s="3"/>
-      <c r="X9" s="3"/>
+      <c r="A9" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B9" s="2">
+        <v>4.0</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E9" s="2">
+        <v>4.0</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="G9" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="H9" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="I9" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="J9" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="K9" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="L9" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="M9" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="N9" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="O9" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="P9" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q9" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="R9" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="S9" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="T9" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="U9" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="V9" s="2">
+        <v>4.0</v>
+      </c>
+      <c r="W9" s="2">
+        <v>4.0</v>
+      </c>
+      <c r="X9" s="2" t="s">
+        <v>53</v>
+      </c>
       <c r="Y9" s="3"/>
       <c r="Z9" s="3"/>
       <c r="AA9" s="3"/>
@@ -1559,19 +1756,19 @@
       <c r="AC9" s="3"/>
     </row>
     <row r="10">
-      <c r="F10" s="8"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="9"/>
-      <c r="I10" s="9"/>
-      <c r="J10" s="9"/>
-      <c r="K10" s="9"/>
-      <c r="L10" s="9"/>
-      <c r="M10" s="9"/>
-      <c r="N10" s="9"/>
-      <c r="O10" s="9"/>
-      <c r="P10" s="9"/>
-      <c r="Q10" s="9"/>
-      <c r="R10" s="9"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="8"/>
+      <c r="K10" s="8"/>
+      <c r="L10" s="8"/>
+      <c r="M10" s="8"/>
+      <c r="N10" s="8"/>
+      <c r="O10" s="8"/>
+      <c r="P10" s="8"/>
+      <c r="Q10" s="8"/>
+      <c r="R10" s="8"/>
       <c r="S10" s="10"/>
       <c r="T10" s="10"/>
       <c r="U10" s="10"/>
@@ -1585,1171 +1782,1170 @@
       <c r="AC10" s="3"/>
     </row>
     <row r="11">
-      <c r="F11" s="8"/>
-      <c r="G11" s="9"/>
-      <c r="H11" s="9"/>
-      <c r="I11" s="9"/>
-      <c r="J11" s="9"/>
-      <c r="K11" s="9"/>
-      <c r="L11" s="9"/>
-      <c r="M11" s="9"/>
-      <c r="N11" s="9"/>
-      <c r="O11" s="9"/>
-      <c r="P11" s="9"/>
-      <c r="Q11" s="9"/>
-      <c r="R11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="8"/>
+      <c r="J11" s="8"/>
+      <c r="K11" s="8"/>
+      <c r="L11" s="8"/>
+      <c r="M11" s="8"/>
+      <c r="N11" s="8"/>
+      <c r="O11" s="8"/>
+      <c r="P11" s="8"/>
+      <c r="Q11" s="8"/>
+      <c r="R11" s="8"/>
       <c r="S11" s="11"/>
       <c r="T11" s="11"/>
       <c r="U11" s="11"/>
     </row>
     <row r="12">
-      <c r="D12" s="7"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="9"/>
-      <c r="H12" s="9"/>
-      <c r="I12" s="9"/>
-      <c r="J12" s="9"/>
-      <c r="K12" s="9"/>
-      <c r="L12" s="9"/>
-      <c r="M12" s="9"/>
-      <c r="N12" s="9"/>
-      <c r="O12" s="9"/>
-      <c r="P12" s="9"/>
-      <c r="Q12" s="9"/>
-      <c r="R12" s="9"/>
+      <c r="D12" s="12"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="8"/>
+      <c r="J12" s="8"/>
+      <c r="K12" s="8"/>
+      <c r="L12" s="8"/>
+      <c r="M12" s="8"/>
+      <c r="N12" s="8"/>
+      <c r="O12" s="8"/>
+      <c r="P12" s="8"/>
+      <c r="Q12" s="8"/>
+      <c r="R12" s="8"/>
       <c r="S12" s="11"/>
       <c r="T12" s="11"/>
       <c r="U12" s="11"/>
-      <c r="V12" s="7"/>
-      <c r="W12" s="7"/>
-      <c r="X12" s="7"/>
-      <c r="Y12" s="7"/>
-      <c r="Z12" s="7"/>
-      <c r="AA12" s="7"/>
-      <c r="AB12" s="7"/>
-      <c r="AC12" s="7"/>
-      <c r="AD12" s="7"/>
-      <c r="AE12" s="7"/>
-      <c r="AF12" s="7"/>
-      <c r="AG12" s="7"/>
-      <c r="AH12" s="7"/>
-      <c r="AI12" s="7"/>
-      <c r="AJ12" s="7"/>
-      <c r="AK12" s="7"/>
-      <c r="AL12" s="7"/>
-      <c r="AM12" s="7"/>
-      <c r="AQ12" s="12"/>
-      <c r="AR12" s="12"/>
-      <c r="AS12" s="12"/>
-      <c r="AT12" s="12"/>
-      <c r="AU12" s="12"/>
-      <c r="AV12" s="12"/>
-      <c r="AW12" s="12"/>
-      <c r="AX12" s="12"/>
-      <c r="AY12" s="12"/>
+      <c r="V12" s="12"/>
+      <c r="W12" s="12"/>
+      <c r="X12" s="12"/>
+      <c r="Y12" s="12"/>
+      <c r="Z12" s="12"/>
+      <c r="AA12" s="12"/>
+      <c r="AB12" s="12"/>
+      <c r="AC12" s="12"/>
+      <c r="AD12" s="12"/>
+      <c r="AE12" s="12"/>
+      <c r="AF12" s="12"/>
+      <c r="AG12" s="12"/>
+      <c r="AH12" s="12"/>
+      <c r="AI12" s="12"/>
+      <c r="AJ12" s="12"/>
+      <c r="AK12" s="12"/>
+      <c r="AL12" s="12"/>
+      <c r="AM12" s="12"/>
+      <c r="AQ12" s="13"/>
+      <c r="AR12" s="13"/>
+      <c r="AS12" s="13"/>
+      <c r="AT12" s="13"/>
+      <c r="AU12" s="13"/>
+      <c r="AV12" s="13"/>
+      <c r="AW12" s="13"/>
+      <c r="AX12" s="13"/>
+      <c r="AY12" s="13"/>
     </row>
     <row r="13">
-      <c r="F13" s="8"/>
-      <c r="G13" s="9"/>
-      <c r="H13" s="9"/>
-      <c r="I13" s="9"/>
-      <c r="J13" s="9"/>
-      <c r="K13" s="9"/>
-      <c r="L13" s="9"/>
-      <c r="M13" s="9"/>
-      <c r="N13" s="9"/>
-      <c r="O13" s="9"/>
-      <c r="P13" s="9"/>
-      <c r="Q13" s="9"/>
-      <c r="R13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="8"/>
+      <c r="K13" s="8"/>
+      <c r="L13" s="8"/>
+      <c r="M13" s="8"/>
+      <c r="N13" s="8"/>
+      <c r="O13" s="8"/>
+      <c r="P13" s="8"/>
+      <c r="Q13" s="8"/>
+      <c r="R13" s="8"/>
       <c r="S13" s="11"/>
       <c r="T13" s="11"/>
       <c r="U13" s="11"/>
-      <c r="V13" s="7"/>
-      <c r="W13" s="7"/>
-      <c r="X13" s="7"/>
-      <c r="Y13" s="7"/>
-      <c r="Z13" s="7"/>
-      <c r="AA13" s="7"/>
-      <c r="AB13" s="7"/>
-      <c r="AC13" s="7"/>
-      <c r="AD13" s="7"/>
-      <c r="AE13" s="7"/>
-      <c r="AF13" s="7"/>
-      <c r="AG13" s="7"/>
-      <c r="AH13" s="7"/>
-      <c r="AI13" s="7"/>
-      <c r="AJ13" s="7"/>
-      <c r="AK13" s="7"/>
-      <c r="AL13" s="7"/>
-      <c r="AM13" s="7"/>
+      <c r="V13" s="12"/>
+      <c r="W13" s="12"/>
+      <c r="X13" s="12"/>
+      <c r="Y13" s="12"/>
+      <c r="Z13" s="12"/>
+      <c r="AA13" s="12"/>
+      <c r="AB13" s="12"/>
+      <c r="AC13" s="12"/>
+      <c r="AD13" s="12"/>
+      <c r="AE13" s="12"/>
+      <c r="AF13" s="12"/>
+      <c r="AG13" s="12"/>
+      <c r="AH13" s="12"/>
+      <c r="AI13" s="12"/>
+      <c r="AJ13" s="12"/>
+      <c r="AK13" s="12"/>
+      <c r="AL13" s="12"/>
+      <c r="AM13" s="12"/>
     </row>
     <row r="14">
-      <c r="F14" s="8"/>
-      <c r="G14" s="9"/>
-      <c r="H14" s="9"/>
-      <c r="I14" s="9"/>
-      <c r="J14" s="9"/>
-      <c r="K14" s="9"/>
-      <c r="L14" s="9"/>
-      <c r="M14" s="9"/>
-      <c r="N14" s="9"/>
-      <c r="O14" s="9"/>
-      <c r="P14" s="9"/>
-      <c r="Q14" s="9"/>
-      <c r="R14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="8"/>
+      <c r="K14" s="8"/>
+      <c r="L14" s="8"/>
+      <c r="M14" s="8"/>
+      <c r="N14" s="8"/>
+      <c r="O14" s="8"/>
+      <c r="P14" s="8"/>
+      <c r="Q14" s="8"/>
+      <c r="R14" s="8"/>
       <c r="S14" s="11"/>
       <c r="T14" s="11"/>
       <c r="U14" s="11"/>
     </row>
     <row r="15">
-      <c r="F15" s="8"/>
-      <c r="G15" s="9"/>
-      <c r="H15" s="9"/>
-      <c r="I15" s="9"/>
-      <c r="J15" s="9"/>
-      <c r="K15" s="9"/>
-      <c r="L15" s="9"/>
-      <c r="M15" s="9"/>
-      <c r="N15" s="9"/>
-      <c r="O15" s="9"/>
-      <c r="P15" s="9"/>
-      <c r="Q15" s="9"/>
-      <c r="R15" s="9"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="8"/>
+      <c r="J15" s="8"/>
+      <c r="K15" s="8"/>
+      <c r="L15" s="8"/>
+      <c r="M15" s="8"/>
+      <c r="N15" s="8"/>
+      <c r="O15" s="8"/>
+      <c r="P15" s="8"/>
+      <c r="Q15" s="8"/>
+      <c r="R15" s="8"/>
       <c r="S15" s="11"/>
       <c r="T15" s="11"/>
       <c r="U15" s="11"/>
-      <c r="V15" s="13"/>
-      <c r="W15" s="13"/>
+      <c r="V15" s="14"/>
+      <c r="W15" s="14"/>
     </row>
     <row r="16" ht="18.0" customHeight="1">
-      <c r="F16" s="8"/>
-      <c r="G16" s="9"/>
-      <c r="H16" s="9"/>
-      <c r="I16" s="9"/>
-      <c r="J16" s="9"/>
-      <c r="K16" s="9"/>
-      <c r="L16" s="9"/>
-      <c r="M16" s="9"/>
-      <c r="N16" s="9"/>
-      <c r="O16" s="9"/>
-      <c r="P16" s="9"/>
-      <c r="Q16" s="9"/>
-      <c r="R16" s="9"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="8"/>
+      <c r="J16" s="8"/>
+      <c r="K16" s="8"/>
+      <c r="L16" s="8"/>
+      <c r="M16" s="8"/>
+      <c r="N16" s="8"/>
+      <c r="O16" s="8"/>
+      <c r="P16" s="8"/>
+      <c r="Q16" s="8"/>
+      <c r="R16" s="8"/>
       <c r="S16" s="11"/>
       <c r="T16" s="11"/>
       <c r="U16" s="11"/>
-      <c r="V16" s="13"/>
-      <c r="W16" s="13"/>
+      <c r="V16" s="14"/>
+      <c r="W16" s="14"/>
     </row>
     <row r="17" ht="16.5" customHeight="1">
-      <c r="F17" s="8"/>
-      <c r="G17" s="9"/>
-      <c r="H17" s="9"/>
-      <c r="I17" s="9"/>
-      <c r="J17" s="9"/>
-      <c r="K17" s="9"/>
-      <c r="L17" s="9"/>
-      <c r="M17" s="9"/>
-      <c r="N17" s="9"/>
-      <c r="O17" s="9"/>
-      <c r="P17" s="9"/>
-      <c r="Q17" s="9"/>
-      <c r="R17" s="9"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="8"/>
+      <c r="I17" s="8"/>
+      <c r="J17" s="8"/>
+      <c r="K17" s="8"/>
+      <c r="L17" s="8"/>
+      <c r="M17" s="8"/>
+      <c r="N17" s="8"/>
+      <c r="O17" s="8"/>
+      <c r="P17" s="8"/>
+      <c r="Q17" s="8"/>
+      <c r="R17" s="8"/>
       <c r="S17" s="11"/>
       <c r="T17" s="11"/>
       <c r="U17" s="11"/>
-      <c r="V17" s="13"/>
-      <c r="W17" s="13"/>
+      <c r="V17" s="14"/>
+      <c r="W17" s="14"/>
     </row>
     <row r="18">
-      <c r="F18" s="8"/>
-      <c r="G18" s="9"/>
-      <c r="H18" s="9"/>
-      <c r="I18" s="9"/>
-      <c r="J18" s="9"/>
-      <c r="K18" s="9"/>
-      <c r="L18" s="9"/>
-      <c r="M18" s="9"/>
-      <c r="N18" s="9"/>
-      <c r="O18" s="9"/>
-      <c r="P18" s="9"/>
-      <c r="Q18" s="9"/>
-      <c r="R18" s="9"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="8"/>
+      <c r="I18" s="8"/>
+      <c r="J18" s="8"/>
+      <c r="K18" s="8"/>
+      <c r="L18" s="8"/>
+      <c r="M18" s="8"/>
+      <c r="N18" s="8"/>
+      <c r="O18" s="8"/>
+      <c r="P18" s="8"/>
+      <c r="Q18" s="8"/>
+      <c r="R18" s="8"/>
       <c r="S18" s="11"/>
       <c r="T18" s="11"/>
       <c r="U18" s="11"/>
-      <c r="V18" s="14"/>
-      <c r="W18" s="14"/>
+      <c r="V18" s="15"/>
+      <c r="W18" s="15"/>
     </row>
     <row r="19" ht="15.75" customHeight="1">
-      <c r="F19" s="8"/>
-      <c r="G19" s="9"/>
-      <c r="H19" s="9"/>
-      <c r="I19" s="9"/>
-      <c r="J19" s="9"/>
-      <c r="K19" s="9"/>
-      <c r="L19" s="9"/>
-      <c r="M19" s="9"/>
-      <c r="N19" s="9"/>
-      <c r="O19" s="9"/>
-      <c r="P19" s="9"/>
-      <c r="Q19" s="9"/>
-      <c r="R19" s="9"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="8"/>
+      <c r="I19" s="8"/>
+      <c r="J19" s="8"/>
+      <c r="K19" s="8"/>
+      <c r="L19" s="8"/>
+      <c r="M19" s="8"/>
+      <c r="N19" s="8"/>
+      <c r="O19" s="8"/>
+      <c r="P19" s="8"/>
+      <c r="Q19" s="8"/>
+      <c r="R19" s="8"/>
       <c r="S19" s="11"/>
       <c r="T19" s="11"/>
       <c r="U19" s="11"/>
-      <c r="V19" s="14"/>
-      <c r="W19" s="14"/>
+      <c r="V19" s="15"/>
+      <c r="W19" s="15"/>
     </row>
     <row r="20" ht="17.25" customHeight="1">
-      <c r="E20" s="13"/>
-      <c r="F20" s="8"/>
-      <c r="G20" s="9"/>
-      <c r="H20" s="9"/>
-      <c r="I20" s="9"/>
-      <c r="J20" s="9"/>
-      <c r="K20" s="9"/>
-      <c r="L20" s="9"/>
-      <c r="M20" s="9"/>
-      <c r="N20" s="9"/>
-      <c r="O20" s="9"/>
-      <c r="P20" s="9"/>
-      <c r="Q20" s="9"/>
-      <c r="R20" s="9"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="8"/>
+      <c r="I20" s="8"/>
+      <c r="J20" s="8"/>
+      <c r="K20" s="8"/>
+      <c r="L20" s="8"/>
+      <c r="M20" s="8"/>
+      <c r="N20" s="8"/>
+      <c r="O20" s="8"/>
+      <c r="P20" s="8"/>
+      <c r="Q20" s="8"/>
+      <c r="R20" s="8"/>
       <c r="S20" s="11"/>
       <c r="T20" s="11"/>
       <c r="U20" s="11"/>
-      <c r="V20" s="14"/>
-      <c r="W20" s="14"/>
+      <c r="V20" s="15"/>
+      <c r="W20" s="15"/>
     </row>
     <row r="21" ht="15.75" customHeight="1">
-      <c r="E21" s="15"/>
-      <c r="F21" s="8"/>
-      <c r="G21" s="9"/>
-      <c r="H21" s="9"/>
-      <c r="I21" s="9"/>
-      <c r="J21" s="9"/>
-      <c r="K21" s="9"/>
-      <c r="L21" s="9"/>
-      <c r="M21" s="9"/>
-      <c r="N21" s="9"/>
-      <c r="O21" s="9"/>
-      <c r="P21" s="9"/>
-      <c r="Q21" s="9"/>
-      <c r="R21" s="9"/>
+      <c r="E21" s="16"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="8"/>
+      <c r="J21" s="8"/>
+      <c r="K21" s="8"/>
+      <c r="L21" s="8"/>
+      <c r="M21" s="8"/>
+      <c r="N21" s="8"/>
+      <c r="O21" s="8"/>
+      <c r="P21" s="8"/>
+      <c r="Q21" s="8"/>
+      <c r="R21" s="8"/>
       <c r="S21" s="11"/>
       <c r="T21" s="11"/>
       <c r="U21" s="11"/>
-      <c r="V21" s="14"/>
-      <c r="W21" s="14"/>
+      <c r="V21" s="15"/>
+      <c r="W21" s="15"/>
     </row>
     <row r="22">
-      <c r="F22" s="8"/>
-      <c r="G22" s="9"/>
-      <c r="H22" s="9"/>
-      <c r="I22" s="9"/>
-      <c r="J22" s="9"/>
-      <c r="K22" s="9"/>
-      <c r="L22" s="9"/>
-      <c r="M22" s="9"/>
-      <c r="N22" s="9"/>
-      <c r="O22" s="9"/>
-      <c r="P22" s="9"/>
-      <c r="Q22" s="9"/>
-      <c r="R22" s="9"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="8"/>
+      <c r="J22" s="8"/>
+      <c r="K22" s="8"/>
+      <c r="L22" s="8"/>
+      <c r="M22" s="8"/>
+      <c r="N22" s="8"/>
+      <c r="O22" s="8"/>
+      <c r="P22" s="8"/>
+      <c r="Q22" s="8"/>
+      <c r="R22" s="8"/>
       <c r="S22" s="11"/>
       <c r="T22" s="11"/>
       <c r="U22" s="11"/>
-      <c r="V22" s="14"/>
-      <c r="W22" s="14"/>
+      <c r="V22" s="15"/>
+      <c r="W22" s="15"/>
     </row>
     <row r="23" ht="15.0" customHeight="1">
-      <c r="F23" s="8"/>
-      <c r="G23" s="9"/>
-      <c r="H23" s="9"/>
-      <c r="I23" s="9"/>
-      <c r="J23" s="9"/>
-      <c r="K23" s="9"/>
-      <c r="L23" s="9"/>
-      <c r="M23" s="9"/>
-      <c r="N23" s="9"/>
-      <c r="O23" s="9"/>
-      <c r="P23" s="9"/>
-      <c r="Q23" s="9"/>
-      <c r="R23" s="9"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="8"/>
+      <c r="H23" s="8"/>
+      <c r="I23" s="8"/>
+      <c r="J23" s="8"/>
+      <c r="K23" s="8"/>
+      <c r="L23" s="8"/>
+      <c r="M23" s="8"/>
+      <c r="N23" s="8"/>
+      <c r="O23" s="8"/>
+      <c r="P23" s="8"/>
+      <c r="Q23" s="8"/>
+      <c r="R23" s="8"/>
       <c r="S23" s="11"/>
       <c r="T23" s="11"/>
       <c r="U23" s="11"/>
-      <c r="V23" s="14"/>
-      <c r="W23" s="14"/>
+      <c r="V23" s="15"/>
+      <c r="W23" s="15"/>
     </row>
     <row r="24" ht="17.25" customHeight="1">
-      <c r="F24" s="8"/>
-      <c r="G24" s="9"/>
-      <c r="H24" s="9"/>
-      <c r="I24" s="9"/>
-      <c r="J24" s="9"/>
-      <c r="K24" s="9"/>
-      <c r="L24" s="9"/>
-      <c r="M24" s="9"/>
-      <c r="N24" s="9"/>
-      <c r="O24" s="9"/>
-      <c r="P24" s="9"/>
-      <c r="Q24" s="9"/>
-      <c r="R24" s="9"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="8"/>
+      <c r="H24" s="8"/>
+      <c r="I24" s="8"/>
+      <c r="J24" s="8"/>
+      <c r="K24" s="8"/>
+      <c r="L24" s="8"/>
+      <c r="M24" s="8"/>
+      <c r="N24" s="8"/>
+      <c r="O24" s="8"/>
+      <c r="P24" s="8"/>
+      <c r="Q24" s="8"/>
+      <c r="R24" s="8"/>
       <c r="S24" s="11"/>
       <c r="T24" s="11"/>
       <c r="U24" s="11"/>
-      <c r="V24" s="14"/>
-      <c r="W24" s="14"/>
+      <c r="V24" s="15"/>
+      <c r="W24" s="15"/>
     </row>
     <row r="25">
-      <c r="F25" s="8"/>
-      <c r="G25" s="9"/>
-      <c r="H25" s="9"/>
-      <c r="I25" s="9"/>
-      <c r="J25" s="9"/>
-      <c r="K25" s="9"/>
-      <c r="L25" s="9"/>
-      <c r="M25" s="9"/>
-      <c r="N25" s="9"/>
-      <c r="O25" s="9"/>
-      <c r="P25" s="9"/>
-      <c r="Q25" s="9"/>
-      <c r="R25" s="9"/>
+      <c r="F25" s="9"/>
+      <c r="G25" s="8"/>
+      <c r="H25" s="8"/>
+      <c r="I25" s="8"/>
+      <c r="J25" s="8"/>
+      <c r="K25" s="8"/>
+      <c r="L25" s="8"/>
+      <c r="M25" s="8"/>
+      <c r="N25" s="8"/>
+      <c r="O25" s="8"/>
+      <c r="P25" s="8"/>
+      <c r="Q25" s="8"/>
+      <c r="R25" s="8"/>
       <c r="S25" s="11"/>
       <c r="T25" s="11"/>
       <c r="U25" s="11"/>
-      <c r="V25" s="14"/>
-      <c r="W25" s="14"/>
+      <c r="V25" s="15"/>
+      <c r="W25" s="15"/>
     </row>
     <row r="26">
-      <c r="M26" s="14"/>
-      <c r="N26" s="14"/>
-      <c r="O26" s="14"/>
-      <c r="P26" s="14"/>
-      <c r="Q26" s="14"/>
-      <c r="R26" s="14"/>
-      <c r="S26" s="14"/>
-      <c r="T26" s="14"/>
-      <c r="U26" s="14"/>
-      <c r="V26" s="14"/>
-      <c r="W26" s="14"/>
+      <c r="M26" s="15"/>
+      <c r="N26" s="15"/>
+      <c r="O26" s="15"/>
+      <c r="P26" s="15"/>
+      <c r="Q26" s="15"/>
+      <c r="R26" s="15"/>
+      <c r="S26" s="15"/>
+      <c r="T26" s="15"/>
+      <c r="U26" s="15"/>
+      <c r="V26" s="15"/>
+      <c r="W26" s="15"/>
     </row>
     <row r="27">
-      <c r="M27" s="14"/>
-      <c r="N27" s="14"/>
-      <c r="O27" s="14"/>
-      <c r="P27" s="14"/>
-      <c r="Q27" s="14"/>
-      <c r="R27" s="14"/>
-      <c r="S27" s="14"/>
-      <c r="T27" s="14"/>
-      <c r="U27" s="14"/>
-      <c r="V27" s="14"/>
-      <c r="W27" s="14"/>
+      <c r="M27" s="15"/>
+      <c r="N27" s="15"/>
+      <c r="O27" s="15"/>
+      <c r="P27" s="15"/>
+      <c r="Q27" s="15"/>
+      <c r="R27" s="15"/>
+      <c r="S27" s="15"/>
+      <c r="T27" s="15"/>
+      <c r="U27" s="15"/>
+      <c r="V27" s="15"/>
+      <c r="W27" s="15"/>
     </row>
     <row r="28" ht="17.25" customHeight="1">
-      <c r="M28" s="14"/>
-      <c r="N28" s="14"/>
-      <c r="O28" s="14"/>
-      <c r="P28" s="14"/>
-      <c r="Q28" s="14"/>
-      <c r="R28" s="14"/>
-      <c r="S28" s="14"/>
-      <c r="T28" s="14"/>
-      <c r="U28" s="14"/>
-      <c r="V28" s="14"/>
-      <c r="W28" s="14"/>
+      <c r="M28" s="15"/>
+      <c r="N28" s="15"/>
+      <c r="O28" s="15"/>
+      <c r="P28" s="15"/>
+      <c r="Q28" s="15"/>
+      <c r="R28" s="15"/>
+      <c r="S28" s="15"/>
+      <c r="T28" s="15"/>
+      <c r="U28" s="15"/>
+      <c r="V28" s="15"/>
+      <c r="W28" s="15"/>
     </row>
     <row r="29">
-      <c r="M29" s="14"/>
-      <c r="N29" s="14"/>
-      <c r="O29" s="14"/>
-      <c r="P29" s="14"/>
-      <c r="Q29" s="14"/>
-      <c r="R29" s="14"/>
-      <c r="S29" s="14"/>
-      <c r="T29" s="14"/>
-      <c r="U29" s="14"/>
-      <c r="V29" s="14"/>
-      <c r="W29" s="14"/>
+      <c r="M29" s="15"/>
+      <c r="N29" s="15"/>
+      <c r="O29" s="15"/>
+      <c r="P29" s="15"/>
+      <c r="Q29" s="15"/>
+      <c r="R29" s="15"/>
+      <c r="S29" s="15"/>
+      <c r="T29" s="15"/>
+      <c r="U29" s="15"/>
+      <c r="V29" s="15"/>
+      <c r="W29" s="15"/>
     </row>
     <row r="30">
-      <c r="M30" s="14"/>
-      <c r="N30" s="14"/>
-      <c r="O30" s="14"/>
-      <c r="P30" s="14"/>
-      <c r="Q30" s="14"/>
-      <c r="R30" s="14"/>
-      <c r="S30" s="14"/>
-      <c r="T30" s="14"/>
-      <c r="U30" s="14"/>
-      <c r="V30" s="14"/>
-      <c r="W30" s="14"/>
+      <c r="M30" s="15"/>
+      <c r="N30" s="15"/>
+      <c r="O30" s="15"/>
+      <c r="P30" s="15"/>
+      <c r="Q30" s="15"/>
+      <c r="R30" s="15"/>
+      <c r="S30" s="15"/>
+      <c r="T30" s="15"/>
+      <c r="U30" s="15"/>
+      <c r="V30" s="15"/>
+      <c r="W30" s="15"/>
     </row>
     <row r="31">
-      <c r="H31" s="14"/>
-      <c r="I31" s="14"/>
-      <c r="L31" s="14"/>
-      <c r="M31" s="14"/>
-      <c r="N31" s="14"/>
-      <c r="O31" s="14"/>
-      <c r="P31" s="14"/>
-      <c r="Q31" s="14"/>
-      <c r="R31" s="14"/>
-      <c r="S31" s="14"/>
-      <c r="T31" s="14"/>
-      <c r="U31" s="14"/>
-      <c r="V31" s="14"/>
-      <c r="W31" s="14"/>
+      <c r="H31" s="15"/>
+      <c r="I31" s="15"/>
+      <c r="L31" s="15"/>
+      <c r="M31" s="15"/>
+      <c r="N31" s="15"/>
+      <c r="O31" s="15"/>
+      <c r="P31" s="15"/>
+      <c r="Q31" s="15"/>
+      <c r="R31" s="15"/>
+      <c r="S31" s="15"/>
+      <c r="T31" s="15"/>
+      <c r="U31" s="15"/>
+      <c r="V31" s="15"/>
+      <c r="W31" s="15"/>
     </row>
     <row r="32">
-      <c r="A32" s="16"/>
-      <c r="B32" s="16"/>
-      <c r="C32" s="16"/>
-      <c r="G32" s="14"/>
-      <c r="H32" s="14"/>
-      <c r="I32" s="14"/>
-      <c r="J32" s="14"/>
-      <c r="K32" s="14"/>
-      <c r="L32" s="14"/>
-      <c r="M32" s="14"/>
-      <c r="N32" s="14"/>
-      <c r="O32" s="14"/>
-      <c r="P32" s="14"/>
-      <c r="Q32" s="14"/>
-      <c r="R32" s="14"/>
-      <c r="S32" s="14"/>
-      <c r="T32" s="14"/>
-      <c r="U32" s="14"/>
-      <c r="V32" s="14"/>
-      <c r="W32" s="14"/>
+      <c r="A32" s="17"/>
+      <c r="B32" s="17"/>
+      <c r="C32" s="17"/>
+      <c r="G32" s="15"/>
+      <c r="H32" s="15"/>
+      <c r="I32" s="15"/>
+      <c r="J32" s="15"/>
+      <c r="K32" s="15"/>
+      <c r="L32" s="15"/>
+      <c r="M32" s="15"/>
+      <c r="N32" s="15"/>
+      <c r="O32" s="15"/>
+      <c r="P32" s="15"/>
+      <c r="Q32" s="15"/>
+      <c r="R32" s="15"/>
+      <c r="S32" s="15"/>
+      <c r="T32" s="15"/>
+      <c r="U32" s="15"/>
+      <c r="V32" s="15"/>
+      <c r="W32" s="15"/>
     </row>
     <row r="33">
-      <c r="G33" s="14"/>
-      <c r="H33" s="14"/>
-      <c r="I33" s="14"/>
-      <c r="J33" s="14"/>
-      <c r="K33" s="14"/>
-      <c r="L33" s="14"/>
-      <c r="M33" s="14"/>
-      <c r="N33" s="14"/>
-      <c r="O33" s="14"/>
-      <c r="P33" s="14"/>
-      <c r="Q33" s="14"/>
-      <c r="R33" s="14"/>
-      <c r="S33" s="14"/>
-      <c r="T33" s="14"/>
-      <c r="U33" s="14"/>
-      <c r="V33" s="14"/>
-      <c r="W33" s="14"/>
+      <c r="G33" s="15"/>
+      <c r="H33" s="15"/>
+      <c r="I33" s="15"/>
+      <c r="J33" s="15"/>
+      <c r="K33" s="15"/>
+      <c r="L33" s="15"/>
+      <c r="M33" s="15"/>
+      <c r="N33" s="15"/>
+      <c r="O33" s="15"/>
+      <c r="P33" s="15"/>
+      <c r="Q33" s="15"/>
+      <c r="R33" s="15"/>
+      <c r="S33" s="15"/>
+      <c r="T33" s="15"/>
+      <c r="U33" s="15"/>
+      <c r="V33" s="15"/>
+      <c r="W33" s="15"/>
     </row>
     <row r="34">
-      <c r="G34" s="14"/>
-      <c r="H34" s="14"/>
-      <c r="I34" s="14"/>
-      <c r="J34" s="14"/>
-      <c r="K34" s="14"/>
-      <c r="L34" s="14"/>
-      <c r="M34" s="14"/>
-      <c r="N34" s="14"/>
-      <c r="O34" s="14"/>
-      <c r="P34" s="14"/>
-      <c r="Q34" s="14"/>
-      <c r="R34" s="14"/>
-      <c r="S34" s="14"/>
-      <c r="T34" s="14"/>
-      <c r="U34" s="14"/>
-      <c r="V34" s="14"/>
-      <c r="W34" s="14"/>
+      <c r="G34" s="15"/>
+      <c r="H34" s="15"/>
+      <c r="I34" s="15"/>
+      <c r="J34" s="15"/>
+      <c r="K34" s="15"/>
+      <c r="L34" s="15"/>
+      <c r="M34" s="15"/>
+      <c r="N34" s="15"/>
+      <c r="O34" s="15"/>
+      <c r="P34" s="15"/>
+      <c r="Q34" s="15"/>
+      <c r="R34" s="15"/>
+      <c r="S34" s="15"/>
+      <c r="T34" s="15"/>
+      <c r="U34" s="15"/>
+      <c r="V34" s="15"/>
+      <c r="W34" s="15"/>
     </row>
     <row r="35">
-      <c r="G35" s="14"/>
-      <c r="H35" s="14"/>
-      <c r="I35" s="14"/>
-      <c r="J35" s="14"/>
-      <c r="K35" s="14"/>
-      <c r="L35" s="14"/>
-      <c r="M35" s="14"/>
-      <c r="N35" s="14"/>
-      <c r="O35" s="14"/>
-      <c r="P35" s="14"/>
-      <c r="Q35" s="14"/>
-      <c r="R35" s="14"/>
-      <c r="S35" s="14"/>
-      <c r="T35" s="14"/>
-      <c r="U35" s="14"/>
-      <c r="V35" s="14"/>
-      <c r="W35" s="14"/>
+      <c r="G35" s="15"/>
+      <c r="H35" s="15"/>
+      <c r="I35" s="15"/>
+      <c r="J35" s="15"/>
+      <c r="K35" s="15"/>
+      <c r="L35" s="15"/>
+      <c r="M35" s="15"/>
+      <c r="N35" s="15"/>
+      <c r="O35" s="15"/>
+      <c r="P35" s="15"/>
+      <c r="Q35" s="15"/>
+      <c r="R35" s="15"/>
+      <c r="S35" s="15"/>
+      <c r="T35" s="15"/>
+      <c r="U35" s="15"/>
+      <c r="V35" s="15"/>
+      <c r="W35" s="15"/>
     </row>
     <row r="37">
-      <c r="A37" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="B37" s="17" t="s">
+      <c r="A37" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="B37" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="C37" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="D37" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="F37" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="G37" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="H37" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="J37" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="K37" s="22" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="B38" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="C38" s="24" t="s">
+        <v>76</v>
+      </c>
+      <c r="D38" s="25" t="s">
+        <v>77</v>
+      </c>
+      <c r="F38" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="G38" s="26">
+        <v>70.0</v>
+      </c>
+      <c r="H38" s="27" t="s">
+        <v>77</v>
+      </c>
+      <c r="J38" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="K38" s="22" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="B39" s="23">
+        <v>0.0</v>
+      </c>
+      <c r="C39" s="28" t="s">
+        <v>76</v>
+      </c>
+      <c r="D39" s="12"/>
+      <c r="F39" s="20" t="s">
+        <v>81</v>
+      </c>
+      <c r="G39" s="27">
+        <v>15.0</v>
+      </c>
+      <c r="H39" s="29"/>
+      <c r="J39" s="30"/>
+      <c r="K39" s="30"/>
+    </row>
+    <row r="40">
+      <c r="A40" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="B40" s="23">
+        <v>25.0</v>
+      </c>
+      <c r="C40" s="28" t="s">
+        <v>76</v>
+      </c>
+      <c r="D40" s="12"/>
+      <c r="F40" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="G40" s="27">
+        <v>15.0</v>
+      </c>
+      <c r="H40" s="29"/>
+      <c r="J40" s="30"/>
+      <c r="K40" s="30"/>
+    </row>
+    <row r="41">
+      <c r="A41" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="B41" s="23">
+        <v>35.0</v>
+      </c>
+      <c r="C41" s="31"/>
+      <c r="J41" s="30"/>
+      <c r="K41" s="30"/>
+    </row>
+    <row r="42">
+      <c r="A42" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="B42" s="23">
+        <v>44.0</v>
+      </c>
+      <c r="C42" s="31"/>
+      <c r="J42" s="30"/>
+      <c r="K42" s="30"/>
+    </row>
+    <row r="43">
+      <c r="A43" s="23" t="s">
+        <v>83</v>
+      </c>
+      <c r="B43" s="23">
+        <v>52.0</v>
+      </c>
+      <c r="C43" s="25"/>
+      <c r="D43" s="14"/>
+      <c r="E43" s="14"/>
+      <c r="F43" s="14"/>
+      <c r="G43" s="15"/>
+      <c r="J43" s="30"/>
+      <c r="K43" s="30"/>
+    </row>
+    <row r="44">
+      <c r="A44" s="23">
+        <v>1.0</v>
+      </c>
+      <c r="B44" s="23">
+        <v>55.0</v>
+      </c>
+      <c r="C44" s="25"/>
+      <c r="D44" s="14"/>
+      <c r="E44" s="15"/>
+      <c r="F44" s="15"/>
+      <c r="G44" s="15"/>
+      <c r="J44" s="30"/>
+      <c r="K44" s="30"/>
+    </row>
+    <row r="45">
+      <c r="A45" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="B45" s="23">
+        <v>58.0</v>
+      </c>
+      <c r="C45" s="25"/>
+      <c r="D45" s="15"/>
+      <c r="J45" s="30"/>
+      <c r="K45" s="30"/>
+    </row>
+    <row r="46">
+      <c r="A46" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="B46" s="23">
+        <v>62.0</v>
+      </c>
+      <c r="C46" s="25"/>
+      <c r="D46" s="15"/>
+      <c r="J46" s="30"/>
+      <c r="K46" s="30"/>
+    </row>
+    <row r="47">
+      <c r="A47" s="23">
+        <v>2.0</v>
+      </c>
+      <c r="B47" s="23">
+        <v>65.0</v>
+      </c>
+      <c r="C47" s="25"/>
+      <c r="D47" s="15"/>
+      <c r="J47" s="30"/>
+      <c r="K47" s="30"/>
+    </row>
+    <row r="48">
+      <c r="A48" s="23" t="s">
+        <v>60</v>
+      </c>
+      <c r="B48" s="23">
+        <v>68.0</v>
+      </c>
+      <c r="C48" s="31"/>
+      <c r="D48" s="15"/>
+      <c r="J48" s="30"/>
+      <c r="K48" s="30"/>
+    </row>
+    <row r="49">
+      <c r="A49" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="B49" s="23">
+        <v>72.0</v>
+      </c>
+      <c r="C49" s="25"/>
+      <c r="D49" s="15"/>
+      <c r="E49" s="15"/>
+      <c r="F49" s="15"/>
+      <c r="J49" s="30"/>
+      <c r="K49" s="30"/>
+    </row>
+    <row r="50">
+      <c r="A50" s="23">
+        <v>3.0</v>
+      </c>
+      <c r="B50" s="23">
+        <v>75.0</v>
+      </c>
+      <c r="C50" s="25"/>
+      <c r="D50" s="15"/>
+      <c r="E50" s="15"/>
+      <c r="F50" s="15"/>
+      <c r="J50" s="30"/>
+      <c r="K50" s="30"/>
+    </row>
+    <row r="51">
+      <c r="A51" s="23" t="s">
         <v>58</v>
       </c>
-      <c r="C37" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="D37" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="F37" s="19" t="s">
+      <c r="B51" s="23">
+        <v>78.0</v>
+      </c>
+      <c r="C51" s="25"/>
+      <c r="D51" s="15"/>
+      <c r="E51" s="15"/>
+      <c r="F51" s="15"/>
+      <c r="J51" s="30"/>
+      <c r="K51" s="30"/>
+    </row>
+    <row r="52">
+      <c r="A52" s="32" t="s">
+        <v>52</v>
+      </c>
+      <c r="B52" s="32">
+        <v>80.0</v>
+      </c>
+      <c r="C52" s="33" t="s">
+        <v>76</v>
+      </c>
+      <c r="E52" s="15"/>
+      <c r="F52" s="15"/>
+      <c r="J52" s="30"/>
+      <c r="K52" s="30"/>
+    </row>
+    <row r="53">
+      <c r="A53" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="B53" s="23">
+        <v>86.0</v>
+      </c>
+      <c r="C53" s="25"/>
+      <c r="E53" s="15"/>
+      <c r="F53" s="15"/>
+      <c r="J53" s="30"/>
+      <c r="K53" s="30"/>
+    </row>
+    <row r="54">
+      <c r="A54" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="G37" s="19" t="s">
-        <v>62</v>
-      </c>
-      <c r="H37" s="19" t="s">
-        <v>60</v>
-      </c>
-      <c r="J37" s="20" t="s">
-        <v>63</v>
-      </c>
-      <c r="K37" s="21" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="22" t="s">
+      <c r="B54" s="13">
+        <v>89.0</v>
+      </c>
+      <c r="E54" s="15"/>
+      <c r="F54" s="15"/>
+      <c r="J54" s="30"/>
+      <c r="K54" s="30"/>
+    </row>
+    <row r="55">
+      <c r="A55" s="32">
+        <v>4.0</v>
+      </c>
+      <c r="B55" s="32">
+        <v>91.0</v>
+      </c>
+      <c r="C55" s="25"/>
+      <c r="E55" s="15"/>
+      <c r="F55" s="15"/>
+    </row>
+    <row r="56">
+      <c r="A56" s="34" t="s">
+        <v>53</v>
+      </c>
+      <c r="B56" s="23">
+        <v>94.0</v>
+      </c>
+      <c r="C56" s="33" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="34" t="s">
+        <v>50</v>
+      </c>
+      <c r="B57" s="35" t="s">
+        <v>85</v>
+      </c>
+      <c r="C57" s="36"/>
+    </row>
+    <row r="58">
+      <c r="A58" s="34" t="s">
+        <v>51</v>
+      </c>
+      <c r="B58" s="35" t="s">
+        <v>86</v>
+      </c>
+      <c r="C58" s="24" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="37"/>
+      <c r="B59" s="38"/>
+      <c r="C59" s="36"/>
+    </row>
+    <row r="60">
+      <c r="A60" s="39" t="s">
+        <v>87</v>
+      </c>
+      <c r="B60" s="40" t="s">
+        <v>88</v>
+      </c>
+      <c r="C60" s="39" t="s">
+        <v>89</v>
+      </c>
+      <c r="F60" s="41" t="s">
+        <v>90</v>
+      </c>
+      <c r="G60" s="41" t="s">
+        <v>91</v>
+      </c>
+      <c r="H60" s="41" t="s">
+        <v>92</v>
+      </c>
+      <c r="K60" s="42" t="s">
+        <v>93</v>
+      </c>
+      <c r="L60" s="43" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="44" t="s">
+        <v>95</v>
+      </c>
+      <c r="B61" s="45">
+        <v>15.0</v>
+      </c>
+      <c r="C61" s="45" t="s">
+        <v>96</v>
+      </c>
+      <c r="F61" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="G61" s="41" t="s">
+        <v>97</v>
+      </c>
+      <c r="H61" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="K61" s="46" t="s">
+        <v>99</v>
+      </c>
+      <c r="L61" s="47" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="44" t="s">
+        <v>101</v>
+      </c>
+      <c r="B62" s="45">
+        <v>35.0</v>
+      </c>
+      <c r="C62" s="45" t="s">
+        <v>102</v>
+      </c>
+      <c r="F62" s="17" t="s">
+        <v>101</v>
+      </c>
+      <c r="G62" s="41" t="s">
+        <v>97</v>
+      </c>
+      <c r="H62" s="17" t="s">
+        <v>103</v>
+      </c>
+      <c r="K62" s="46" t="s">
+        <v>82</v>
+      </c>
+      <c r="L62" s="48" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="44" t="s">
+        <v>105</v>
+      </c>
+      <c r="B63" s="45">
+        <v>45.0</v>
+      </c>
+      <c r="C63" s="45" t="s">
+        <v>106</v>
+      </c>
+      <c r="F63" s="17" t="s">
+        <v>105</v>
+      </c>
+      <c r="G63" s="41" t="s">
+        <v>97</v>
+      </c>
+      <c r="H63" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="K63" s="46" t="s">
+        <v>81</v>
+      </c>
+      <c r="L63" s="49" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="44" t="s">
+        <v>109</v>
+      </c>
+      <c r="B64" s="45">
+        <v>5.0</v>
+      </c>
+      <c r="C64" s="45" t="s">
+        <v>110</v>
+      </c>
+      <c r="F64" s="17" t="s">
+        <v>109</v>
+      </c>
+      <c r="G64" s="41" t="s">
+        <v>97</v>
+      </c>
+      <c r="H64" s="17" t="s">
+        <v>111</v>
+      </c>
+      <c r="K64" s="46" t="s">
+        <v>112</v>
+      </c>
+      <c r="L64" s="50" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="F65" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="G65" s="17" t="s">
+        <v>113</v>
+      </c>
+      <c r="H65" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="K65" s="46" t="s">
+        <v>114</v>
+      </c>
+      <c r="L65" s="51" t="s">
         <v>54</v>
       </c>
-      <c r="B38" s="22" t="s">
-        <v>65</v>
-      </c>
-      <c r="C38" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="D38" s="23" t="s">
-        <v>67</v>
-      </c>
-      <c r="F38" s="19" t="s">
-        <v>68</v>
-      </c>
-      <c r="G38" s="24">
-        <v>70.0</v>
-      </c>
-      <c r="H38" s="25" t="s">
-        <v>67</v>
-      </c>
-      <c r="J38" s="20" t="s">
-        <v>69</v>
-      </c>
-      <c r="K38" s="21" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="B39" s="22">
-        <v>0.0</v>
-      </c>
-      <c r="C39" s="26" t="s">
-        <v>66</v>
-      </c>
-      <c r="D39" s="7"/>
-      <c r="F39" s="19" t="s">
-        <v>71</v>
-      </c>
-      <c r="G39" s="25">
-        <v>15.0</v>
-      </c>
-      <c r="H39" s="27"/>
-      <c r="J39" s="28"/>
-      <c r="K39" s="28"/>
-    </row>
-    <row r="40">
-      <c r="A40" s="22" t="s">
-        <v>56</v>
-      </c>
-      <c r="B40" s="22">
-        <v>25.0</v>
-      </c>
-      <c r="C40" s="26" t="s">
-        <v>66</v>
-      </c>
-      <c r="D40" s="7"/>
-      <c r="F40" s="19" t="s">
-        <v>72</v>
-      </c>
-      <c r="G40" s="25">
-        <v>15.0</v>
-      </c>
-      <c r="H40" s="27"/>
-      <c r="J40" s="28"/>
-      <c r="K40" s="28"/>
-    </row>
-    <row r="41">
-      <c r="A41" s="22" t="s">
-        <v>73</v>
-      </c>
-      <c r="B41" s="22">
-        <v>35.0</v>
-      </c>
-      <c r="C41" s="29"/>
-      <c r="J41" s="28"/>
-      <c r="K41" s="28"/>
-    </row>
-    <row r="42">
-      <c r="A42" s="22" t="s">
-        <v>74</v>
-      </c>
-      <c r="B42" s="22">
-        <v>44.0</v>
-      </c>
-      <c r="C42" s="29"/>
-      <c r="J42" s="28"/>
-      <c r="K42" s="28"/>
-    </row>
-    <row r="43">
-      <c r="A43" s="22" t="s">
-        <v>75</v>
-      </c>
-      <c r="B43" s="22">
-        <v>52.0</v>
-      </c>
-      <c r="C43" s="23"/>
-      <c r="D43" s="13"/>
-      <c r="E43" s="13"/>
-      <c r="F43" s="13"/>
-      <c r="G43" s="14"/>
-      <c r="J43" s="28"/>
-      <c r="K43" s="28"/>
-    </row>
-    <row r="44">
-      <c r="A44" s="22">
-        <v>1.0</v>
-      </c>
-      <c r="B44" s="22">
-        <v>55.0</v>
-      </c>
-      <c r="C44" s="23"/>
-      <c r="D44" s="13"/>
-      <c r="E44" s="14"/>
-      <c r="F44" s="14"/>
-      <c r="G44" s="14"/>
-      <c r="J44" s="28"/>
-      <c r="K44" s="28"/>
-    </row>
-    <row r="45">
-      <c r="A45" s="22" t="s">
-        <v>76</v>
-      </c>
-      <c r="B45" s="22">
-        <v>58.0</v>
-      </c>
-      <c r="C45" s="23"/>
-      <c r="D45" s="14"/>
-      <c r="J45" s="28"/>
-      <c r="K45" s="28"/>
-    </row>
-    <row r="46">
-      <c r="A46" s="22" t="s">
-        <v>77</v>
-      </c>
-      <c r="B46" s="22">
-        <v>62.0</v>
-      </c>
-      <c r="C46" s="23"/>
-      <c r="D46" s="14"/>
-      <c r="J46" s="28"/>
-      <c r="K46" s="28"/>
-    </row>
-    <row r="47">
-      <c r="A47" s="22">
-        <v>2.0</v>
-      </c>
-      <c r="B47" s="22">
-        <v>65.0</v>
-      </c>
-      <c r="C47" s="23"/>
-      <c r="D47" s="14"/>
-      <c r="J47" s="28"/>
-      <c r="K47" s="28"/>
-    </row>
-    <row r="48">
-      <c r="A48" s="22" t="s">
-        <v>78</v>
-      </c>
-      <c r="B48" s="22">
-        <v>68.0</v>
-      </c>
-      <c r="C48" s="29"/>
-      <c r="D48" s="14"/>
-      <c r="J48" s="28"/>
-      <c r="K48" s="28"/>
-    </row>
-    <row r="49">
-      <c r="A49" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="B49" s="22">
-        <v>72.0</v>
-      </c>
-      <c r="C49" s="23"/>
-      <c r="D49" s="14"/>
-      <c r="E49" s="14"/>
-      <c r="F49" s="14"/>
-      <c r="J49" s="28"/>
-      <c r="K49" s="28"/>
-    </row>
-    <row r="50">
-      <c r="A50" s="22">
-        <v>3.0</v>
-      </c>
-      <c r="B50" s="22">
-        <v>75.0</v>
-      </c>
-      <c r="C50" s="23"/>
-      <c r="D50" s="14"/>
-      <c r="E50" s="14"/>
-      <c r="F50" s="14"/>
-      <c r="J50" s="28"/>
-      <c r="K50" s="28"/>
-    </row>
-    <row r="51">
-      <c r="A51" s="22" t="s">
-        <v>79</v>
-      </c>
-      <c r="B51" s="22">
-        <v>78.0</v>
-      </c>
-      <c r="C51" s="23"/>
-      <c r="D51" s="14"/>
-      <c r="E51" s="14"/>
-      <c r="F51" s="14"/>
-      <c r="J51" s="28"/>
-      <c r="K51" s="28"/>
-    </row>
-    <row r="52">
-      <c r="A52" s="30" t="s">
-        <v>52</v>
-      </c>
-      <c r="B52" s="30">
-        <v>80.0</v>
-      </c>
-      <c r="C52" s="31" t="s">
-        <v>66</v>
-      </c>
-      <c r="D52" s="14"/>
-      <c r="E52" s="14"/>
-      <c r="F52" s="14"/>
-      <c r="J52" s="28"/>
-      <c r="K52" s="28"/>
-    </row>
-    <row r="53">
-      <c r="A53" s="22" t="s">
-        <v>47</v>
-      </c>
-      <c r="B53" s="22">
-        <v>86.0</v>
-      </c>
-      <c r="C53" s="23"/>
-      <c r="D53" s="14"/>
-      <c r="E53" s="14"/>
-      <c r="F53" s="14"/>
-      <c r="J53" s="28"/>
-      <c r="K53" s="28"/>
-    </row>
-    <row r="54">
-      <c r="A54" s="30">
-        <v>4.0</v>
-      </c>
-      <c r="B54" s="30">
-        <v>91.0</v>
-      </c>
-      <c r="C54" s="23"/>
-      <c r="D54" s="14"/>
-      <c r="E54" s="14"/>
-      <c r="F54" s="14"/>
-      <c r="J54" s="28"/>
-      <c r="K54" s="28"/>
-    </row>
-    <row r="55">
-      <c r="A55" s="32" t="s">
-        <v>53</v>
-      </c>
-      <c r="B55" s="22">
-        <v>94.0</v>
-      </c>
-      <c r="C55" s="31" t="s">
-        <v>66</v>
-      </c>
-      <c r="D55" s="14"/>
-      <c r="E55" s="14"/>
-      <c r="F55" s="14"/>
-    </row>
-    <row r="56">
-      <c r="A56" s="32" t="s">
-        <v>50</v>
-      </c>
-      <c r="B56" s="33" t="s">
-        <v>80</v>
-      </c>
-      <c r="C56" s="34"/>
-    </row>
-    <row r="57">
-      <c r="A57" s="32" t="s">
-        <v>51</v>
-      </c>
-      <c r="B57" s="33" t="s">
-        <v>81</v>
-      </c>
-      <c r="C57" s="35" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" s="36"/>
-      <c r="B58" s="37"/>
-      <c r="C58" s="34"/>
-    </row>
-    <row r="59">
-      <c r="A59" s="36"/>
-      <c r="B59" s="37"/>
-      <c r="C59" s="34"/>
-    </row>
-    <row r="60">
-      <c r="A60" s="38" t="s">
-        <v>82</v>
-      </c>
-      <c r="B60" s="39" t="s">
-        <v>83</v>
-      </c>
-      <c r="C60" s="38" t="s">
-        <v>84</v>
-      </c>
-      <c r="F60" s="40" t="s">
-        <v>85</v>
-      </c>
-      <c r="G60" s="40" t="s">
-        <v>86</v>
-      </c>
-      <c r="H60" s="40" t="s">
-        <v>87</v>
-      </c>
-      <c r="K60" s="41" t="s">
-        <v>88</v>
-      </c>
-      <c r="L60" s="42" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" s="43" t="s">
-        <v>90</v>
-      </c>
-      <c r="B61" s="44">
-        <v>15.0</v>
-      </c>
-      <c r="C61" s="44" t="s">
-        <v>91</v>
-      </c>
-      <c r="F61" s="16" t="s">
-        <v>90</v>
-      </c>
-      <c r="G61" s="40" t="s">
-        <v>92</v>
-      </c>
-      <c r="H61" s="16" t="s">
-        <v>93</v>
-      </c>
-      <c r="K61" s="41" t="s">
-        <v>94</v>
-      </c>
-      <c r="L61" s="45" t="s">
+    </row>
+    <row r="66">
+      <c r="F66" s="17" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="62">
-      <c r="A62" s="43" t="s">
-        <v>96</v>
-      </c>
-      <c r="B62" s="44">
-        <v>35.0</v>
-      </c>
-      <c r="C62" s="44" t="s">
-        <v>97</v>
-      </c>
-      <c r="F62" s="16" t="s">
-        <v>96</v>
-      </c>
-      <c r="G62" s="40" t="s">
-        <v>92</v>
-      </c>
-      <c r="H62" s="16" t="s">
-        <v>98</v>
-      </c>
-      <c r="K62" s="41" t="s">
-        <v>72</v>
-      </c>
-      <c r="L62" s="46" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" s="43" t="s">
-        <v>100</v>
-      </c>
-      <c r="B63" s="44">
-        <v>45.0</v>
-      </c>
-      <c r="C63" s="44" t="s">
+      <c r="G66" s="17" t="s">
+        <v>115</v>
+      </c>
+      <c r="H66" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="K66" s="46" t="s">
+        <v>116</v>
+      </c>
+      <c r="L66" s="51" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="F67" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="G67" s="17" t="s">
+        <v>117</v>
+      </c>
+      <c r="H67" s="17" t="s">
+        <v>118</v>
+      </c>
+      <c r="K67" s="46" t="s">
+        <v>119</v>
+      </c>
+      <c r="L67" s="51" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="F68" s="52" t="s">
         <v>101</v>
       </c>
-      <c r="F63" s="16" t="s">
-        <v>100</v>
-      </c>
-      <c r="G63" s="40" t="s">
-        <v>92</v>
-      </c>
-      <c r="H63" s="16" t="s">
-        <v>102</v>
-      </c>
-      <c r="K63" s="41" t="s">
-        <v>71</v>
-      </c>
-      <c r="L63" s="47" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" s="43" t="s">
-        <v>104</v>
-      </c>
-      <c r="B64" s="44">
-        <v>5.0</v>
-      </c>
-      <c r="C64" s="44" t="s">
+      <c r="G68" s="17" t="s">
+        <v>121</v>
+      </c>
+      <c r="H68" s="52" t="s">
+        <v>18</v>
+      </c>
+      <c r="K68" s="46" t="s">
+        <v>122</v>
+      </c>
+      <c r="L68" s="53" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="F69" s="52" t="s">
+        <v>101</v>
+      </c>
+      <c r="G69" s="17" t="s">
+        <v>123</v>
+      </c>
+      <c r="H69" s="52" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="F70" s="52" t="s">
+        <v>101</v>
+      </c>
+      <c r="G70" s="17" t="s">
+        <v>124</v>
+      </c>
+      <c r="H70" s="52" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="F71" s="52" t="s">
+        <v>101</v>
+      </c>
+      <c r="G71" s="17" t="s">
+        <v>125</v>
+      </c>
+      <c r="H71" s="52" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="F72" s="52" t="s">
         <v>105</v>
       </c>
-      <c r="F64" s="16" t="s">
-        <v>104</v>
-      </c>
-      <c r="G64" s="40" t="s">
-        <v>92</v>
-      </c>
-      <c r="H64" s="16" t="s">
-        <v>106</v>
-      </c>
-      <c r="K64" s="48" t="s">
-        <v>107</v>
-      </c>
-      <c r="L64" s="49" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="F65" s="16" t="s">
-        <v>90</v>
-      </c>
-      <c r="G65" s="16" t="s">
-        <v>108</v>
-      </c>
-      <c r="H65" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="K65" s="48" t="s">
+      <c r="G72" s="17" t="s">
+        <v>127</v>
+      </c>
+      <c r="H72" s="52" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="F73" s="52" t="s">
+        <v>105</v>
+      </c>
+      <c r="G73" s="17" t="s">
+        <v>128</v>
+      </c>
+      <c r="H73" s="52" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="F74" s="52" t="s">
+        <v>105</v>
+      </c>
+      <c r="G74" s="17" t="s">
+        <v>129</v>
+      </c>
+      <c r="H74" s="52" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="F75" s="52" t="s">
+        <v>105</v>
+      </c>
+      <c r="G75" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="H75" s="52" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="F76" s="52" t="s">
         <v>109</v>
       </c>
-      <c r="L65" s="50" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="F66" s="16" t="s">
-        <v>90</v>
-      </c>
-      <c r="G66" s="16" t="s">
-        <v>110</v>
-      </c>
-      <c r="H66" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="K66" s="48" t="s">
-        <v>111</v>
-      </c>
-      <c r="L66" s="50" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="F67" s="16" t="s">
-        <v>90</v>
-      </c>
-      <c r="G67" s="16" t="s">
-        <v>112</v>
-      </c>
-      <c r="H67" s="16" t="s">
-        <v>113</v>
-      </c>
-      <c r="K67" s="48" t="s">
-        <v>114</v>
-      </c>
-      <c r="L67" s="50" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="F68" s="51" t="s">
-        <v>96</v>
-      </c>
-      <c r="G68" s="16" t="s">
-        <v>116</v>
-      </c>
-      <c r="H68" s="51" t="s">
-        <v>18</v>
-      </c>
-      <c r="K68" s="48" t="s">
-        <v>117</v>
-      </c>
-      <c r="L68" s="52" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="F69" s="51" t="s">
-        <v>96</v>
-      </c>
-      <c r="G69" s="16" t="s">
-        <v>118</v>
-      </c>
-      <c r="H69" s="51" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="F70" s="51" t="s">
-        <v>96</v>
-      </c>
-      <c r="G70" s="16" t="s">
-        <v>119</v>
-      </c>
-      <c r="H70" s="51" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="F71" s="51" t="s">
-        <v>96</v>
-      </c>
-      <c r="G71" s="16" t="s">
-        <v>120</v>
-      </c>
-      <c r="H71" s="51" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="F72" s="51" t="s">
-        <v>100</v>
-      </c>
-      <c r="G72" s="16" t="s">
-        <v>122</v>
-      </c>
-      <c r="H72" s="51" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="F73" s="51" t="s">
-        <v>100</v>
-      </c>
-      <c r="G73" s="16" t="s">
-        <v>123</v>
-      </c>
-      <c r="H73" s="51" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="F74" s="51" t="s">
-        <v>100</v>
-      </c>
-      <c r="G74" s="16" t="s">
-        <v>124</v>
-      </c>
-      <c r="H74" s="51" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="F75" s="51" t="s">
-        <v>100</v>
-      </c>
-      <c r="G75" s="16" t="s">
-        <v>125</v>
-      </c>
-      <c r="H75" s="51" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="F76" s="51" t="s">
-        <v>104</v>
-      </c>
-      <c r="G76" s="16" t="s">
-        <v>126</v>
-      </c>
-      <c r="H76" s="51" t="s">
-        <v>127</v>
+      <c r="G76" s="17" t="s">
+        <v>131</v>
+      </c>
+      <c r="H76" s="52" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="77">
-      <c r="F77" s="51" t="s">
-        <v>104</v>
-      </c>
-      <c r="G77" s="16" t="s">
-        <v>128</v>
-      </c>
-      <c r="H77" s="51" t="s">
-        <v>129</v>
+      <c r="F77" s="52" t="s">
+        <v>109</v>
+      </c>
+      <c r="G77" s="17" t="s">
+        <v>133</v>
+      </c>
+      <c r="H77" s="52" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="78">
-      <c r="F78" s="51" t="s">
-        <v>104</v>
-      </c>
-      <c r="G78" s="16" t="s">
-        <v>130</v>
-      </c>
-      <c r="H78" s="51" t="s">
+      <c r="F78" s="52" t="s">
+        <v>109</v>
+      </c>
+      <c r="G78" s="17" t="s">
+        <v>135</v>
+      </c>
+      <c r="H78" s="52" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="79">
-      <c r="F79" s="51" t="s">
-        <v>104</v>
-      </c>
-      <c r="G79" s="16" t="s">
-        <v>131</v>
-      </c>
-      <c r="H79" s="51" t="s">
-        <v>132</v>
+      <c r="F79" s="52" t="s">
+        <v>109</v>
+      </c>
+      <c r="G79" s="17" t="s">
+        <v>136</v>
+      </c>
+      <c r="H79" s="52" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="83">
-      <c r="B83" s="53"/>
-      <c r="C83" s="53"/>
-      <c r="D83" s="53"/>
-      <c r="E83" s="53"/>
+      <c r="B83" s="54"/>
+      <c r="C83" s="54"/>
+      <c r="D83" s="54"/>
+      <c r="E83" s="54"/>
     </row>
     <row r="84">
-      <c r="B84" s="54"/>
-      <c r="C84" s="55"/>
-      <c r="D84" s="54"/>
+      <c r="B84" s="55"/>
+      <c r="C84" s="56"/>
+      <c r="D84" s="55"/>
     </row>
     <row r="85">
-      <c r="B85" s="55"/>
-      <c r="C85" s="55"/>
+      <c r="B85" s="56"/>
+      <c r="C85" s="56"/>
     </row>
     <row r="86">
-      <c r="B86" s="54"/>
+      <c r="B86" s="55"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>

--- a/main/exampleSheet7.xlsx
+++ b/main/exampleSheet7.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="138">
   <si>
     <t>Evaluation</t>
   </si>
@@ -199,13 +199,13 @@
     <t>4-/4</t>
   </si>
   <si>
-    <t>Richardson,Liam</t>
+    <t>Smith,Jane</t>
   </si>
   <si>
     <t>3</t>
   </si>
   <si>
-    <t>Tremblay,Xavier</t>
+    <t>Student,Example</t>
   </si>
   <si>
     <t>R</t>
@@ -214,139 +214,85 @@
     <t>R+</t>
   </si>
   <si>
-    <t>Level</t>
-  </si>
-  <si>
-    <t>Percent</t>
-  </si>
-  <si>
-    <t>Ignore</t>
-  </si>
-  <si>
-    <t>Type y to lock</t>
-  </si>
-  <si>
-    <t>Summary</t>
-  </si>
-  <si>
-    <t>Weight (%)</t>
-  </si>
-  <si>
-    <t>Course</t>
-  </si>
-  <si>
-    <t>ENG4U</t>
-  </si>
-  <si>
-    <t>NM</t>
-  </si>
-  <si>
-    <t>*</t>
-  </si>
-  <si>
-    <t>y</t>
-  </si>
-  <si>
-    <t>Term</t>
-  </si>
-  <si>
-    <t>Teacher</t>
-  </si>
-  <si>
-    <t>Ms. Wick</t>
+    <t>Expectation Strand</t>
+  </si>
+  <si>
+    <t>Expectation Name</t>
+  </si>
+  <si>
+    <t>Expectation Code</t>
+  </si>
+  <si>
+    <t>Strand Code</t>
+  </si>
+  <si>
+    <t>Strand Weight (%)</t>
+  </si>
+  <si>
+    <t>Strand Name</t>
+  </si>
+  <si>
+    <t>Evaluation Type</t>
+  </si>
+  <si>
+    <t>Short-form and Colour</t>
+  </si>
+  <si>
+    <t>A1</t>
+  </si>
+  <si>
+    <t>Overall</t>
+  </si>
+  <si>
+    <t>A1.0</t>
+  </si>
+  <si>
+    <t>Oral Communication</t>
+  </si>
+  <si>
+    <t>Overall Strand</t>
+  </si>
+  <si>
+    <t>O.X</t>
+  </si>
+  <si>
+    <t>A2</t>
+  </si>
+  <si>
+    <t>A2.0</t>
+  </si>
+  <si>
+    <t>Reading and Literature Studies</t>
+  </si>
+  <si>
+    <t>Summative</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>A3</t>
+  </si>
+  <si>
+    <t>A3.0</t>
+  </si>
+  <si>
+    <t>Writing</t>
   </si>
   <si>
     <t>Exam</t>
   </si>
   <si>
-    <t>Summative</t>
-  </si>
-  <si>
-    <t>1-</t>
-  </si>
-  <si>
-    <t>1+</t>
-  </si>
-  <si>
-    <t>97</t>
-  </si>
-  <si>
-    <t>100</t>
-  </si>
-  <si>
-    <t>Strand Code</t>
-  </si>
-  <si>
-    <t>Strand Weight (%)</t>
-  </si>
-  <si>
-    <t>Strand Name</t>
-  </si>
-  <si>
-    <t>Expectation Strand</t>
-  </si>
-  <si>
-    <t>Expectation Name</t>
-  </si>
-  <si>
-    <t>Expectation Code</t>
-  </si>
-  <si>
-    <t>Evaluation Type</t>
-  </si>
-  <si>
-    <t>Shortform and Colour</t>
-  </si>
-  <si>
-    <t>A1</t>
-  </si>
-  <si>
-    <t>Oral Communication</t>
-  </si>
-  <si>
-    <t>Overall</t>
-  </si>
-  <si>
-    <t>A1.0</t>
-  </si>
-  <si>
-    <t>Overall Strand</t>
-  </si>
-  <si>
-    <t>O.X</t>
-  </si>
-  <si>
-    <t>A2</t>
-  </si>
-  <si>
-    <t>Reading and Literature Studies</t>
-  </si>
-  <si>
-    <t>A2.0</t>
-  </si>
-  <si>
-    <t>S</t>
-  </si>
-  <si>
-    <t>A3</t>
-  </si>
-  <si>
-    <t>Writing</t>
-  </si>
-  <si>
-    <t>A3.0</t>
-  </si>
-  <si>
     <t>E</t>
   </si>
   <si>
     <t>A4</t>
   </si>
   <si>
+    <t>A4.0</t>
+  </si>
+  <si>
     <t>Media Studies</t>
-  </si>
-  <si>
-    <t>A4.0</t>
   </si>
   <si>
     <t>Test</t>
@@ -413,12 +359,24 @@
     <t>A4.1</t>
   </si>
   <si>
+    <t>Course</t>
+  </si>
+  <si>
+    <t>ENG4U</t>
+  </si>
+  <si>
     <t>Understanding Media Forms, Conventions, and Techniques: identify some media forms and explain how the conventions and techniques associated with them are used to create meaning</t>
   </si>
   <si>
     <t>A4.2</t>
   </si>
   <si>
+    <t>Teacher</t>
+  </si>
+  <si>
+    <t>Bob Jones</t>
+  </si>
+  <si>
     <t>Creating Media Texts: create a variety of media texts for different purposes and audiences, using appropriate forms, conventions, and techniques</t>
   </si>
   <si>
@@ -426,13 +384,55 @@
   </si>
   <si>
     <t>A4.4</t>
+  </si>
+  <si>
+    <t>Level</t>
+  </si>
+  <si>
+    <t>Percent</t>
+  </si>
+  <si>
+    <t>Ignore</t>
+  </si>
+  <si>
+    <t>Type y to lock</t>
+  </si>
+  <si>
+    <t>Summary</t>
+  </si>
+  <si>
+    <t>Weight (%)</t>
+  </si>
+  <si>
+    <t>NM</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>Term</t>
+  </si>
+  <si>
+    <t>*</t>
+  </si>
+  <si>
+    <t>1-</t>
+  </si>
+  <si>
+    <t>1+</t>
+  </si>
+  <si>
+    <t>97</t>
+  </si>
+  <si>
+    <t>100</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="36">
+  <fonts count="47">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -441,6 +441,7 @@
     </font>
     <font>
       <b/>
+      <i/>
       <color rgb="FF9900FF"/>
       <name val="Arial"/>
       <scheme val="minor"/>
@@ -451,12 +452,66 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <color rgb="FF9900FF"/>
       <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <color rgb="FF9900FF"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <color theme="4"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <color theme="4"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <color rgb="FFEA4335"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <color rgb="FFEA4335"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <color theme="5"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <color rgb="FFC27BA0"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <b/>
+      <color rgb="FFC27BA0"/>
+      <name val="Arial"/>
     </font>
     <font>
       <color theme="1"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <color theme="4"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -465,9 +520,65 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <color theme="5"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <color rgb="FFEA4335"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <color rgb="FF6AA84F"/>
+      <name val="Arial"/>
+    </font>
+    <font>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <color rgb="FF4285F4"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <color theme="1"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <color rgb="FF9900FF"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <color rgb="FFC27BA0"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <color rgb="FF4285F4"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <color rgb="FFFF00FF"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <color rgb="FF0000FF"/>
+      <name val="Arial"/>
     </font>
     <font>
       <strike/>
@@ -476,9 +587,28 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <color theme="4"/>
+      <b/>
+      <i/>
+      <color rgb="FFF1C232"/>
       <name val="Arial"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <color rgb="FFF1C232"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <color rgb="FFF1C232"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <color rgb="FF34A853"/>
+      <name val="Arial"/>
     </font>
     <font>
       <b/>
@@ -493,88 +623,48 @@
     </font>
     <font>
       <b/>
+      <i/>
       <color theme="8"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <color rgb="FFF1C232"/>
+      <color theme="8"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <color rgb="FFF1C232"/>
+      <color rgb="FF34A853"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <color rgb="FF34A853"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <color rgb="FF34A853"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <color rgb="FF34A853"/>
+      <color theme="8"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <color theme="8"/>
+      <color rgb="FFFF6D01"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <color rgb="FFFF6D01"/>
+      <color rgb="FFFF00FF"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <color rgb="FFFF00FF"/>
+      <color theme="7"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <color theme="7"/>
-      <name val="Arial"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <color theme="5"/>
-      <name val="Arial"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <color rgb="FFEA4335"/>
-      <name val="Arial"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <color theme="4"/>
-      <name val="Arial"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <color rgb="FFC27BA0"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <color rgb="FFC27BA0"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <color theme="5"/>
-      <name val="Arial"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <color rgb="FFEA4335"/>
-      <name val="Arial"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <color rgb="FF6AA84F"/>
       <name val="Arial"/>
     </font>
@@ -586,23 +676,6 @@
     <font>
       <b/>
       <color rgb="FF9900FF"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <color rgb="FFFF0000"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <color rgb="FFFF00FF"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <color rgb="FF4285F4"/>
-      <name val="Arial"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <color rgb="FF0000FF"/>
       <name val="Arial"/>
     </font>
     <font>
@@ -633,7 +706,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="70">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -644,25 +717,25 @@
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
@@ -674,127 +747,164 @@
     <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
     <xf borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="12" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" vertical="bottom"/>
+      <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="14" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="0" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
     <xf borderId="0" fillId="0" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="16" numFmtId="0" xfId="0" applyFont="1"/>
+      <alignment vertical="bottom"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="20" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="14" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="14" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="left" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="19" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="19" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="20" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
     <xf borderId="0" fillId="0" fontId="21" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+      <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="22" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+      <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="23" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="18" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="24" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
+      <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="25" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="18" numFmtId="49" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf borderId="0" fillId="0" fontId="26" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="24" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="27" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
+    <xf borderId="0" fillId="0" fontId="27" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="28" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
+      <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="29" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
+      <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="30" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
+      <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="31" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="32" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+      <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="33" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="34" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="35" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="36" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="37" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="36" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="34" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="35" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="38" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="39" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="36" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="38" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="40" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="36" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="37" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="36" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="37" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="36" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="36" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="41" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="41" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="41" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="22" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="42" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="43" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="44" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="45" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="46" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="27" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
@@ -1102,7 +1212,7 @@
       <c r="AC1" s="3"/>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="4" t="s">
         <v>15</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -1181,7 +1291,7 @@
       <c r="AC2" s="3"/>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="4" t="s">
         <v>26</v>
       </c>
       <c r="B3" s="2">
@@ -1260,43 +1370,43 @@
       <c r="AC3" s="3"/>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F4" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="G4" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="H4" s="4" t="s">
+      <c r="H4" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="I4" s="4" t="s">
+      <c r="I4" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="J4" s="4" t="s">
+      <c r="J4" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="K4" s="4" t="s">
+      <c r="K4" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="L4" s="4" t="s">
+      <c r="L4" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="M4" s="4" t="s">
+      <c r="M4" s="5" t="s">
         <v>30</v>
       </c>
       <c r="N4" s="2" t="s">
@@ -1339,76 +1449,76 @@
       <c r="AC4" s="3"/>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="F5" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="G5" s="5" t="s">
+      <c r="G5" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="H5" s="5" t="s">
+      <c r="H5" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="I5" s="5" t="s">
+      <c r="I5" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="J5" s="5" t="s">
+      <c r="J5" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="K5" s="5" t="s">
+      <c r="K5" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="L5" s="5" t="s">
+      <c r="L5" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="M5" s="5" t="s">
+      <c r="M5" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="N5" s="6" t="s">
+      <c r="N5" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="O5" s="6" t="s">
+      <c r="O5" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="P5" s="6" t="s">
+      <c r="P5" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="Q5" s="6" t="s">
+      <c r="Q5" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="R5" s="6" t="s">
+      <c r="R5" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="S5" s="6" t="s">
+      <c r="S5" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="T5" s="6" t="s">
+      <c r="T5" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="U5" s="6" t="s">
+      <c r="U5" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="V5" s="6" t="s">
+      <c r="V5" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="W5" s="6" t="s">
+      <c r="W5" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="X5" s="6" t="s">
+      <c r="X5" s="7" t="s">
         <v>44</v>
       </c>
       <c r="Y5" s="3"/>
@@ -1421,40 +1531,40 @@
       <c r="A6" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="E6" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="F6" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="G6" s="4" t="s">
+      <c r="G6" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="H6" s="4" t="s">
+      <c r="H6" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="I6" s="4" t="s">
+      <c r="I6" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="J6" s="4" t="s">
+      <c r="J6" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="K6" s="4" t="s">
+      <c r="K6" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="L6" s="4" t="s">
+      <c r="L6" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="M6" s="4" t="s">
+      <c r="M6" s="5" t="s">
         <v>51</v>
       </c>
       <c r="N6" s="2" t="s">
@@ -1515,40 +1625,40 @@
       <c r="F7" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="G7" s="4" t="s">
+      <c r="G7" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="H7" s="4" t="s">
+      <c r="H7" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="I7" s="4" t="s">
+      <c r="I7" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="J7" s="4" t="s">
+      <c r="J7" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="K7" s="4" t="s">
+      <c r="K7" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="L7" s="4" t="s">
+      <c r="L7" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="M7" s="4" t="s">
+      <c r="M7" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="N7" s="4" t="s">
+      <c r="N7" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="O7" s="4" t="s">
+      <c r="O7" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="P7" s="4" t="s">
+      <c r="P7" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="Q7" s="4" t="s">
+      <c r="Q7" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="R7" s="4" t="s">
+      <c r="R7" s="5" t="s">
         <v>53</v>
       </c>
       <c r="S7" s="2" t="s">
@@ -1613,52 +1723,52 @@
       <c r="E8" s="2">
         <v>4.0</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="F8" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="G8" s="8" t="s">
+      <c r="G8" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="H8" s="8" t="s">
+      <c r="H8" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="I8" s="8" t="s">
+      <c r="I8" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="J8" s="8" t="s">
+      <c r="J8" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="K8" s="8" t="s">
+      <c r="K8" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="L8" s="8" t="s">
+      <c r="L8" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="M8" s="8" t="s">
+      <c r="M8" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="N8" s="8" t="s">
+      <c r="N8" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="O8" s="8" t="s">
+      <c r="O8" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="P8" s="8" t="s">
+      <c r="P8" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="Q8" s="8" t="s">
+      <c r="Q8" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="R8" s="8" t="s">
+      <c r="R8" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="S8" s="8" t="s">
+      <c r="S8" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="T8" s="8" t="s">
+      <c r="T8" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="U8" s="8" t="s">
+      <c r="U8" s="9" t="s">
         <v>48</v>
       </c>
       <c r="V8" s="2">
@@ -1692,52 +1802,52 @@
       <c r="E9" s="2">
         <v>4.0</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="F9" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="G9" s="8" t="s">
+      <c r="G9" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="H9" s="8" t="s">
+      <c r="H9" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="I9" s="8" t="s">
+      <c r="I9" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="J9" s="8" t="s">
+      <c r="J9" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="K9" s="8" t="s">
+      <c r="K9" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="L9" s="8" t="s">
+      <c r="L9" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="M9" s="8" t="s">
+      <c r="M9" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="N9" s="8" t="s">
+      <c r="N9" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="O9" s="8" t="s">
+      <c r="O9" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="P9" s="8" t="s">
+      <c r="P9" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="Q9" s="8" t="s">
+      <c r="Q9" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="R9" s="8" t="s">
+      <c r="R9" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="S9" s="8" t="s">
+      <c r="S9" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="T9" s="8" t="s">
+      <c r="T9" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="U9" s="8" t="s">
+      <c r="U9" s="9" t="s">
         <v>47</v>
       </c>
       <c r="V9" s="2">
@@ -1756,22 +1866,22 @@
       <c r="AC9" s="3"/>
     </row>
     <row r="10">
-      <c r="F10" s="9"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="8"/>
-      <c r="K10" s="8"/>
-      <c r="L10" s="8"/>
-      <c r="M10" s="8"/>
-      <c r="N10" s="8"/>
-      <c r="O10" s="8"/>
-      <c r="P10" s="8"/>
-      <c r="Q10" s="8"/>
-      <c r="R10" s="8"/>
-      <c r="S10" s="10"/>
-      <c r="T10" s="10"/>
-      <c r="U10" s="10"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="9"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="9"/>
+      <c r="L10" s="9"/>
+      <c r="M10" s="9"/>
+      <c r="N10" s="9"/>
+      <c r="O10" s="9"/>
+      <c r="P10" s="9"/>
+      <c r="Q10" s="9"/>
+      <c r="R10" s="9"/>
+      <c r="S10" s="11"/>
+      <c r="T10" s="11"/>
+      <c r="U10" s="11"/>
       <c r="V10" s="3"/>
       <c r="W10" s="3"/>
       <c r="X10" s="3"/>
@@ -1782,1170 +1892,1152 @@
       <c r="AC10" s="3"/>
     </row>
     <row r="11">
-      <c r="F11" s="9"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="8"/>
-      <c r="I11" s="8"/>
-      <c r="J11" s="8"/>
-      <c r="K11" s="8"/>
-      <c r="L11" s="8"/>
-      <c r="M11" s="8"/>
-      <c r="N11" s="8"/>
-      <c r="O11" s="8"/>
-      <c r="P11" s="8"/>
-      <c r="Q11" s="8"/>
-      <c r="R11" s="8"/>
-      <c r="S11" s="11"/>
-      <c r="T11" s="11"/>
-      <c r="U11" s="11"/>
+      <c r="A11" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="E11" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="F11" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="G11" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="H11" s="9"/>
+      <c r="I11" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="J11" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="K11" s="9"/>
+      <c r="L11" s="9"/>
+      <c r="M11" s="9"/>
+      <c r="N11" s="9"/>
+      <c r="O11" s="9"/>
+      <c r="P11" s="9"/>
+      <c r="Q11" s="9"/>
+      <c r="R11" s="9"/>
+      <c r="S11" s="19"/>
+      <c r="T11" s="19"/>
+      <c r="U11" s="19"/>
     </row>
     <row r="12">
-      <c r="D12" s="12"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="8"/>
-      <c r="I12" s="8"/>
-      <c r="J12" s="8"/>
-      <c r="K12" s="8"/>
-      <c r="L12" s="8"/>
-      <c r="M12" s="8"/>
-      <c r="N12" s="8"/>
-      <c r="O12" s="8"/>
-      <c r="P12" s="8"/>
-      <c r="Q12" s="8"/>
-      <c r="R12" s="8"/>
-      <c r="S12" s="11"/>
-      <c r="T12" s="11"/>
-      <c r="U12" s="11"/>
-      <c r="V12" s="12"/>
-      <c r="W12" s="12"/>
-      <c r="X12" s="12"/>
-      <c r="Y12" s="12"/>
-      <c r="Z12" s="12"/>
-      <c r="AA12" s="12"/>
-      <c r="AB12" s="12"/>
-      <c r="AC12" s="12"/>
-      <c r="AD12" s="12"/>
-      <c r="AE12" s="12"/>
-      <c r="AF12" s="12"/>
-      <c r="AG12" s="12"/>
-      <c r="AH12" s="12"/>
-      <c r="AI12" s="12"/>
-      <c r="AJ12" s="12"/>
-      <c r="AK12" s="12"/>
-      <c r="AL12" s="12"/>
-      <c r="AM12" s="12"/>
-      <c r="AQ12" s="13"/>
-      <c r="AR12" s="13"/>
-      <c r="AS12" s="13"/>
-      <c r="AT12" s="13"/>
-      <c r="AU12" s="13"/>
-      <c r="AV12" s="13"/>
-      <c r="AW12" s="13"/>
-      <c r="AX12" s="13"/>
-      <c r="AY12" s="13"/>
+      <c r="A12" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="C12" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="D12" s="21"/>
+      <c r="E12" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="F12" s="23">
+        <v>15.0</v>
+      </c>
+      <c r="G12" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="H12" s="9"/>
+      <c r="I12" s="24" t="s">
+        <v>79</v>
+      </c>
+      <c r="J12" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="K12" s="9"/>
+      <c r="L12" s="9"/>
+      <c r="M12" s="9"/>
+      <c r="N12" s="9"/>
+      <c r="O12" s="9"/>
+      <c r="P12" s="9"/>
+      <c r="Q12" s="9"/>
+      <c r="R12" s="9"/>
+      <c r="S12" s="19"/>
+      <c r="T12" s="19"/>
+      <c r="U12" s="19"/>
+      <c r="V12" s="21"/>
+      <c r="W12" s="21"/>
+      <c r="X12" s="21"/>
+      <c r="Y12" s="21"/>
+      <c r="Z12" s="21"/>
+      <c r="AA12" s="21"/>
+      <c r="AB12" s="21"/>
+      <c r="AC12" s="21"/>
+      <c r="AD12" s="21"/>
+      <c r="AE12" s="21"/>
+      <c r="AF12" s="21"/>
+      <c r="AG12" s="21"/>
+      <c r="AH12" s="21"/>
+      <c r="AI12" s="21"/>
+      <c r="AJ12" s="21"/>
+      <c r="AK12" s="21"/>
+      <c r="AL12" s="21"/>
+      <c r="AM12" s="21"/>
+      <c r="AQ12" s="26"/>
+      <c r="AR12" s="26"/>
+      <c r="AS12" s="26"/>
+      <c r="AT12" s="26"/>
+      <c r="AU12" s="26"/>
+      <c r="AV12" s="26"/>
+      <c r="AW12" s="26"/>
+      <c r="AX12" s="26"/>
+      <c r="AY12" s="26"/>
     </row>
     <row r="13">
-      <c r="F13" s="9"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="8"/>
-      <c r="I13" s="8"/>
-      <c r="J13" s="8"/>
-      <c r="K13" s="8"/>
-      <c r="L13" s="8"/>
-      <c r="M13" s="8"/>
-      <c r="N13" s="8"/>
-      <c r="O13" s="8"/>
-      <c r="P13" s="8"/>
-      <c r="Q13" s="8"/>
-      <c r="R13" s="8"/>
-      <c r="S13" s="11"/>
-      <c r="T13" s="11"/>
-      <c r="U13" s="11"/>
-      <c r="V13" s="12"/>
-      <c r="W13" s="12"/>
-      <c r="X13" s="12"/>
-      <c r="Y13" s="12"/>
-      <c r="Z13" s="12"/>
-      <c r="AA13" s="12"/>
-      <c r="AB13" s="12"/>
-      <c r="AC13" s="12"/>
-      <c r="AD13" s="12"/>
-      <c r="AE13" s="12"/>
-      <c r="AF13" s="12"/>
-      <c r="AG13" s="12"/>
-      <c r="AH13" s="12"/>
-      <c r="AI13" s="12"/>
-      <c r="AJ13" s="12"/>
-      <c r="AK13" s="12"/>
-      <c r="AL13" s="12"/>
-      <c r="AM13" s="12"/>
+      <c r="A13" s="20" t="s">
+        <v>81</v>
+      </c>
+      <c r="B13" s="27" t="s">
+        <v>76</v>
+      </c>
+      <c r="C13" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="E13" s="22" t="s">
+        <v>81</v>
+      </c>
+      <c r="F13" s="23">
+        <v>35.0</v>
+      </c>
+      <c r="G13" s="23" t="s">
+        <v>83</v>
+      </c>
+      <c r="H13" s="9"/>
+      <c r="I13" s="24" t="s">
+        <v>84</v>
+      </c>
+      <c r="J13" s="28" t="s">
+        <v>85</v>
+      </c>
+      <c r="K13" s="9"/>
+      <c r="L13" s="9"/>
+      <c r="M13" s="9"/>
+      <c r="N13" s="9"/>
+      <c r="O13" s="9"/>
+      <c r="P13" s="9"/>
+      <c r="Q13" s="9"/>
+      <c r="R13" s="9"/>
+      <c r="S13" s="19"/>
+      <c r="T13" s="19"/>
+      <c r="U13" s="19"/>
+      <c r="V13" s="21"/>
+      <c r="W13" s="21"/>
+      <c r="X13" s="21"/>
+      <c r="Y13" s="21"/>
+      <c r="Z13" s="21"/>
+      <c r="AA13" s="21"/>
+      <c r="AB13" s="21"/>
+      <c r="AC13" s="21"/>
+      <c r="AD13" s="21"/>
+      <c r="AE13" s="21"/>
+      <c r="AF13" s="21"/>
+      <c r="AG13" s="21"/>
+      <c r="AH13" s="21"/>
+      <c r="AI13" s="21"/>
+      <c r="AJ13" s="21"/>
+      <c r="AK13" s="21"/>
+      <c r="AL13" s="21"/>
+      <c r="AM13" s="21"/>
     </row>
     <row r="14">
-      <c r="F14" s="9"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="8"/>
-      <c r="I14" s="8"/>
-      <c r="J14" s="8"/>
-      <c r="K14" s="8"/>
-      <c r="L14" s="8"/>
-      <c r="M14" s="8"/>
-      <c r="N14" s="8"/>
-      <c r="O14" s="8"/>
-      <c r="P14" s="8"/>
-      <c r="Q14" s="8"/>
-      <c r="R14" s="8"/>
-      <c r="S14" s="11"/>
-      <c r="T14" s="11"/>
-      <c r="U14" s="11"/>
+      <c r="A14" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="C14" s="20" t="s">
+        <v>87</v>
+      </c>
+      <c r="E14" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="F14" s="23">
+        <v>45.0</v>
+      </c>
+      <c r="G14" s="23" t="s">
+        <v>88</v>
+      </c>
+      <c r="H14" s="9"/>
+      <c r="I14" s="24" t="s">
+        <v>89</v>
+      </c>
+      <c r="J14" s="29" t="s">
+        <v>90</v>
+      </c>
+      <c r="K14" s="9"/>
+      <c r="L14" s="9"/>
+      <c r="M14" s="9"/>
+      <c r="N14" s="9"/>
+      <c r="O14" s="9"/>
+      <c r="P14" s="9"/>
+      <c r="Q14" s="9"/>
+      <c r="R14" s="9"/>
+      <c r="S14" s="19"/>
+      <c r="T14" s="19"/>
+      <c r="U14" s="19"/>
     </row>
     <row r="15">
-      <c r="F15" s="9"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="8"/>
-      <c r="I15" s="8"/>
-      <c r="J15" s="8"/>
-      <c r="K15" s="8"/>
-      <c r="L15" s="8"/>
-      <c r="M15" s="8"/>
-      <c r="N15" s="8"/>
-      <c r="O15" s="8"/>
-      <c r="P15" s="8"/>
-      <c r="Q15" s="8"/>
-      <c r="R15" s="8"/>
-      <c r="S15" s="11"/>
-      <c r="T15" s="11"/>
-      <c r="U15" s="11"/>
-      <c r="V15" s="14"/>
-      <c r="W15" s="14"/>
+      <c r="A15" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="C15" s="20" t="s">
+        <v>92</v>
+      </c>
+      <c r="E15" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="F15" s="23">
+        <v>5.0</v>
+      </c>
+      <c r="G15" s="23" t="s">
+        <v>93</v>
+      </c>
+      <c r="H15" s="9"/>
+      <c r="I15" s="30" t="s">
+        <v>94</v>
+      </c>
+      <c r="J15" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="K15" s="9"/>
+      <c r="L15" s="9"/>
+      <c r="M15" s="9"/>
+      <c r="N15" s="9"/>
+      <c r="O15" s="9"/>
+      <c r="P15" s="9"/>
+      <c r="Q15" s="9"/>
+      <c r="R15" s="9"/>
+      <c r="S15" s="19"/>
+      <c r="T15" s="19"/>
+      <c r="U15" s="19"/>
+      <c r="V15" s="32"/>
+      <c r="W15" s="32"/>
     </row>
     <row r="16" ht="18.0" customHeight="1">
-      <c r="F16" s="9"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="8"/>
-      <c r="I16" s="8"/>
-      <c r="J16" s="8"/>
-      <c r="K16" s="8"/>
-      <c r="L16" s="8"/>
-      <c r="M16" s="8"/>
-      <c r="N16" s="8"/>
-      <c r="O16" s="8"/>
-      <c r="P16" s="8"/>
-      <c r="Q16" s="8"/>
-      <c r="R16" s="8"/>
-      <c r="S16" s="11"/>
-      <c r="T16" s="11"/>
-      <c r="U16" s="11"/>
-      <c r="V16" s="14"/>
-      <c r="W16" s="14"/>
+      <c r="A16" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="B16" s="33" t="s">
+        <v>95</v>
+      </c>
+      <c r="C16" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="F16" s="10"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="9"/>
+      <c r="I16" s="30" t="s">
+        <v>96</v>
+      </c>
+      <c r="J16" s="34" t="s">
+        <v>54</v>
+      </c>
+      <c r="K16" s="9"/>
+      <c r="L16" s="9"/>
+      <c r="M16" s="9"/>
+      <c r="N16" s="9"/>
+      <c r="O16" s="9"/>
+      <c r="P16" s="9"/>
+      <c r="Q16" s="9"/>
+      <c r="R16" s="9"/>
+      <c r="S16" s="19"/>
+      <c r="T16" s="19"/>
+      <c r="U16" s="19"/>
+      <c r="V16" s="32"/>
+      <c r="W16" s="32"/>
     </row>
     <row r="17" ht="16.5" customHeight="1">
-      <c r="F17" s="9"/>
-      <c r="G17" s="8"/>
-      <c r="H17" s="8"/>
-      <c r="I17" s="8"/>
-      <c r="J17" s="8"/>
-      <c r="K17" s="8"/>
-      <c r="L17" s="8"/>
-      <c r="M17" s="8"/>
-      <c r="N17" s="8"/>
-      <c r="O17" s="8"/>
-      <c r="P17" s="8"/>
-      <c r="Q17" s="8"/>
-      <c r="R17" s="8"/>
-      <c r="S17" s="11"/>
-      <c r="T17" s="11"/>
-      <c r="U17" s="11"/>
-      <c r="V17" s="14"/>
-      <c r="W17" s="14"/>
+      <c r="A17" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="B17" s="33" t="s">
+        <v>97</v>
+      </c>
+      <c r="C17" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="F17" s="10"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="9"/>
+      <c r="I17" s="30" t="s">
+        <v>98</v>
+      </c>
+      <c r="J17" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="K17" s="9"/>
+      <c r="L17" s="9"/>
+      <c r="M17" s="9"/>
+      <c r="N17" s="9"/>
+      <c r="O17" s="9"/>
+      <c r="P17" s="9"/>
+      <c r="Q17" s="9"/>
+      <c r="R17" s="9"/>
+      <c r="S17" s="19"/>
+      <c r="T17" s="19"/>
+      <c r="U17" s="19"/>
+      <c r="V17" s="32"/>
+      <c r="W17" s="32"/>
     </row>
     <row r="18">
-      <c r="F18" s="9"/>
-      <c r="G18" s="8"/>
-      <c r="H18" s="8"/>
-      <c r="I18" s="8"/>
-      <c r="J18" s="8"/>
-      <c r="K18" s="8"/>
-      <c r="L18" s="8"/>
-      <c r="M18" s="8"/>
-      <c r="N18" s="8"/>
-      <c r="O18" s="8"/>
-      <c r="P18" s="8"/>
-      <c r="Q18" s="8"/>
-      <c r="R18" s="8"/>
-      <c r="S18" s="11"/>
-      <c r="T18" s="11"/>
-      <c r="U18" s="11"/>
-      <c r="V18" s="15"/>
-      <c r="W18" s="15"/>
+      <c r="A18" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="B18" s="20" t="s">
+        <v>99</v>
+      </c>
+      <c r="C18" s="20" t="s">
+        <v>100</v>
+      </c>
+      <c r="F18" s="10"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="9"/>
+      <c r="I18" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="J18" s="34" t="s">
+        <v>102</v>
+      </c>
+      <c r="K18" s="9"/>
+      <c r="L18" s="9"/>
+      <c r="M18" s="9"/>
+      <c r="N18" s="9"/>
+      <c r="O18" s="9"/>
+      <c r="P18" s="9"/>
+      <c r="Q18" s="9"/>
+      <c r="R18" s="9"/>
+      <c r="S18" s="19"/>
+      <c r="T18" s="19"/>
+      <c r="U18" s="19"/>
+      <c r="V18" s="35"/>
+      <c r="W18" s="35"/>
     </row>
     <row r="19" ht="15.75" customHeight="1">
-      <c r="F19" s="9"/>
-      <c r="G19" s="8"/>
-      <c r="H19" s="8"/>
-      <c r="I19" s="8"/>
-      <c r="J19" s="8"/>
-      <c r="K19" s="8"/>
-      <c r="L19" s="8"/>
-      <c r="M19" s="8"/>
-      <c r="N19" s="8"/>
-      <c r="O19" s="8"/>
-      <c r="P19" s="8"/>
-      <c r="Q19" s="8"/>
-      <c r="R19" s="8"/>
-      <c r="S19" s="11"/>
-      <c r="T19" s="11"/>
-      <c r="U19" s="11"/>
-      <c r="V19" s="15"/>
-      <c r="W19" s="15"/>
+      <c r="A19" s="33" t="s">
+        <v>81</v>
+      </c>
+      <c r="B19" s="33" t="s">
+        <v>103</v>
+      </c>
+      <c r="C19" s="33" t="s">
+        <v>18</v>
+      </c>
+      <c r="F19" s="10"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="9"/>
+      <c r="I19" s="30" t="s">
+        <v>104</v>
+      </c>
+      <c r="J19" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="K19" s="9"/>
+      <c r="L19" s="9"/>
+      <c r="M19" s="9"/>
+      <c r="N19" s="9"/>
+      <c r="O19" s="9"/>
+      <c r="P19" s="9"/>
+      <c r="Q19" s="9"/>
+      <c r="R19" s="9"/>
+      <c r="S19" s="19"/>
+      <c r="T19" s="19"/>
+      <c r="U19" s="19"/>
+      <c r="V19" s="35"/>
+      <c r="W19" s="35"/>
     </row>
     <row r="20" ht="17.25" customHeight="1">
-      <c r="E20" s="14"/>
-      <c r="F20" s="9"/>
-      <c r="G20" s="8"/>
-      <c r="H20" s="8"/>
-      <c r="I20" s="8"/>
-      <c r="J20" s="8"/>
-      <c r="K20" s="8"/>
-      <c r="L20" s="8"/>
-      <c r="M20" s="8"/>
-      <c r="N20" s="8"/>
-      <c r="O20" s="8"/>
-      <c r="P20" s="8"/>
-      <c r="Q20" s="8"/>
-      <c r="R20" s="8"/>
-      <c r="S20" s="11"/>
-      <c r="T20" s="11"/>
-      <c r="U20" s="11"/>
-      <c r="V20" s="15"/>
-      <c r="W20" s="15"/>
+      <c r="A20" s="33" t="s">
+        <v>81</v>
+      </c>
+      <c r="B20" s="33" t="s">
+        <v>105</v>
+      </c>
+      <c r="C20" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="E20" s="32"/>
+      <c r="F20" s="10"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="9"/>
+      <c r="I20" s="9"/>
+      <c r="J20" s="9"/>
+      <c r="K20" s="9"/>
+      <c r="L20" s="9"/>
+      <c r="M20" s="9"/>
+      <c r="N20" s="9"/>
+      <c r="O20" s="9"/>
+      <c r="P20" s="9"/>
+      <c r="Q20" s="9"/>
+      <c r="R20" s="9"/>
+      <c r="S20" s="19"/>
+      <c r="T20" s="19"/>
+      <c r="U20" s="19"/>
+      <c r="V20" s="35"/>
+      <c r="W20" s="35"/>
     </row>
     <row r="21" ht="15.75" customHeight="1">
-      <c r="E21" s="16"/>
-      <c r="F21" s="9"/>
-      <c r="G21" s="8"/>
-      <c r="H21" s="8"/>
-      <c r="I21" s="8"/>
-      <c r="J21" s="8"/>
-      <c r="K21" s="8"/>
-      <c r="L21" s="8"/>
-      <c r="M21" s="8"/>
-      <c r="N21" s="8"/>
-      <c r="O21" s="8"/>
-      <c r="P21" s="8"/>
-      <c r="Q21" s="8"/>
-      <c r="R21" s="8"/>
-      <c r="S21" s="11"/>
-      <c r="T21" s="11"/>
-      <c r="U21" s="11"/>
-      <c r="V21" s="15"/>
-      <c r="W21" s="15"/>
+      <c r="A21" s="33" t="s">
+        <v>81</v>
+      </c>
+      <c r="B21" s="20" t="s">
+        <v>106</v>
+      </c>
+      <c r="C21" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="E21" s="37"/>
+      <c r="F21" s="10"/>
+      <c r="G21" s="9"/>
+      <c r="H21" s="9"/>
+      <c r="I21" s="9"/>
+      <c r="J21" s="9"/>
+      <c r="K21" s="9"/>
+      <c r="L21" s="9"/>
+      <c r="M21" s="9"/>
+      <c r="N21" s="9"/>
+      <c r="O21" s="9"/>
+      <c r="P21" s="9"/>
+      <c r="Q21" s="9"/>
+      <c r="R21" s="9"/>
+      <c r="S21" s="19"/>
+      <c r="T21" s="19"/>
+      <c r="U21" s="19"/>
+      <c r="V21" s="35"/>
+      <c r="W21" s="35"/>
     </row>
     <row r="22">
-      <c r="F22" s="9"/>
-      <c r="G22" s="8"/>
-      <c r="H22" s="8"/>
-      <c r="I22" s="8"/>
-      <c r="J22" s="8"/>
-      <c r="K22" s="8"/>
-      <c r="L22" s="8"/>
-      <c r="M22" s="8"/>
-      <c r="N22" s="8"/>
-      <c r="O22" s="8"/>
-      <c r="P22" s="8"/>
-      <c r="Q22" s="8"/>
-      <c r="R22" s="8"/>
-      <c r="S22" s="11"/>
-      <c r="T22" s="11"/>
-      <c r="U22" s="11"/>
-      <c r="V22" s="15"/>
-      <c r="W22" s="15"/>
+      <c r="A22" s="33" t="s">
+        <v>81</v>
+      </c>
+      <c r="B22" s="20" t="s">
+        <v>107</v>
+      </c>
+      <c r="C22" s="33" t="s">
+        <v>108</v>
+      </c>
+      <c r="F22" s="10"/>
+      <c r="G22" s="9"/>
+      <c r="H22" s="9"/>
+      <c r="I22" s="9"/>
+      <c r="J22" s="9"/>
+      <c r="K22" s="9"/>
+      <c r="L22" s="9"/>
+      <c r="M22" s="9"/>
+      <c r="N22" s="9"/>
+      <c r="O22" s="9"/>
+      <c r="P22" s="9"/>
+      <c r="Q22" s="9"/>
+      <c r="R22" s="9"/>
+      <c r="S22" s="19"/>
+      <c r="T22" s="19"/>
+      <c r="U22" s="19"/>
+      <c r="V22" s="35"/>
+      <c r="W22" s="35"/>
     </row>
     <row r="23" ht="15.0" customHeight="1">
-      <c r="F23" s="9"/>
-      <c r="G23" s="8"/>
-      <c r="H23" s="8"/>
-      <c r="I23" s="8"/>
-      <c r="J23" s="8"/>
-      <c r="K23" s="8"/>
-      <c r="L23" s="8"/>
-      <c r="M23" s="8"/>
-      <c r="N23" s="8"/>
-      <c r="O23" s="8"/>
-      <c r="P23" s="8"/>
-      <c r="Q23" s="8"/>
-      <c r="R23" s="8"/>
-      <c r="S23" s="11"/>
-      <c r="T23" s="11"/>
-      <c r="U23" s="11"/>
-      <c r="V23" s="15"/>
-      <c r="W23" s="15"/>
+      <c r="A23" s="33" t="s">
+        <v>86</v>
+      </c>
+      <c r="B23" s="33" t="s">
+        <v>109</v>
+      </c>
+      <c r="C23" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="F23" s="10"/>
+      <c r="G23" s="9"/>
+      <c r="H23" s="9"/>
+      <c r="I23" s="9"/>
+      <c r="J23" s="9"/>
+      <c r="K23" s="9"/>
+      <c r="L23" s="9"/>
+      <c r="M23" s="9"/>
+      <c r="N23" s="9"/>
+      <c r="O23" s="9"/>
+      <c r="P23" s="9"/>
+      <c r="Q23" s="9"/>
+      <c r="R23" s="9"/>
+      <c r="S23" s="19"/>
+      <c r="T23" s="19"/>
+      <c r="U23" s="19"/>
+      <c r="V23" s="35"/>
+      <c r="W23" s="35"/>
     </row>
     <row r="24" ht="17.25" customHeight="1">
-      <c r="F24" s="9"/>
-      <c r="G24" s="8"/>
-      <c r="H24" s="8"/>
-      <c r="I24" s="8"/>
-      <c r="J24" s="8"/>
-      <c r="K24" s="8"/>
-      <c r="L24" s="8"/>
-      <c r="M24" s="8"/>
-      <c r="N24" s="8"/>
-      <c r="O24" s="8"/>
-      <c r="P24" s="8"/>
-      <c r="Q24" s="8"/>
-      <c r="R24" s="8"/>
-      <c r="S24" s="11"/>
-      <c r="T24" s="11"/>
-      <c r="U24" s="11"/>
-      <c r="V24" s="15"/>
-      <c r="W24" s="15"/>
+      <c r="A24" s="33" t="s">
+        <v>86</v>
+      </c>
+      <c r="B24" s="20" t="s">
+        <v>110</v>
+      </c>
+      <c r="C24" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="F24" s="10"/>
+      <c r="G24" s="9"/>
+      <c r="H24" s="9"/>
+      <c r="I24" s="9"/>
+      <c r="J24" s="9"/>
+      <c r="K24" s="9"/>
+      <c r="L24" s="9"/>
+      <c r="M24" s="9"/>
+      <c r="N24" s="9"/>
+      <c r="O24" s="9"/>
+      <c r="P24" s="9"/>
+      <c r="Q24" s="9"/>
+      <c r="R24" s="9"/>
+      <c r="S24" s="19"/>
+      <c r="T24" s="19"/>
+      <c r="U24" s="19"/>
+      <c r="V24" s="35"/>
+      <c r="W24" s="35"/>
     </row>
     <row r="25">
-      <c r="F25" s="9"/>
-      <c r="G25" s="8"/>
-      <c r="H25" s="8"/>
-      <c r="I25" s="8"/>
-      <c r="J25" s="8"/>
-      <c r="K25" s="8"/>
-      <c r="L25" s="8"/>
-      <c r="M25" s="8"/>
-      <c r="N25" s="8"/>
-      <c r="O25" s="8"/>
-      <c r="P25" s="8"/>
-      <c r="Q25" s="8"/>
-      <c r="R25" s="8"/>
-      <c r="S25" s="11"/>
-      <c r="T25" s="11"/>
-      <c r="U25" s="11"/>
-      <c r="V25" s="15"/>
-      <c r="W25" s="15"/>
+      <c r="A25" s="33" t="s">
+        <v>86</v>
+      </c>
+      <c r="B25" s="20" t="s">
+        <v>111</v>
+      </c>
+      <c r="C25" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="F25" s="10"/>
+      <c r="G25" s="9"/>
+      <c r="H25" s="9"/>
+      <c r="I25" s="9"/>
+      <c r="J25" s="9"/>
+      <c r="K25" s="9"/>
+      <c r="L25" s="9"/>
+      <c r="M25" s="9"/>
+      <c r="N25" s="9"/>
+      <c r="O25" s="9"/>
+      <c r="P25" s="9"/>
+      <c r="Q25" s="9"/>
+      <c r="R25" s="9"/>
+      <c r="S25" s="19"/>
+      <c r="T25" s="19"/>
+      <c r="U25" s="19"/>
+      <c r="V25" s="35"/>
+      <c r="W25" s="35"/>
     </row>
     <row r="26">
-      <c r="M26" s="15"/>
-      <c r="N26" s="15"/>
-      <c r="O26" s="15"/>
-      <c r="P26" s="15"/>
-      <c r="Q26" s="15"/>
-      <c r="R26" s="15"/>
-      <c r="S26" s="15"/>
-      <c r="T26" s="15"/>
-      <c r="U26" s="15"/>
-      <c r="V26" s="15"/>
-      <c r="W26" s="15"/>
+      <c r="A26" s="33" t="s">
+        <v>86</v>
+      </c>
+      <c r="B26" s="20" t="s">
+        <v>112</v>
+      </c>
+      <c r="C26" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="M26" s="35"/>
+      <c r="N26" s="35"/>
+      <c r="O26" s="35"/>
+      <c r="P26" s="35"/>
+      <c r="Q26" s="35"/>
+      <c r="R26" s="35"/>
+      <c r="S26" s="35"/>
+      <c r="T26" s="35"/>
+      <c r="U26" s="35"/>
+      <c r="V26" s="35"/>
+      <c r="W26" s="35"/>
     </row>
     <row r="27">
-      <c r="M27" s="15"/>
-      <c r="N27" s="15"/>
-      <c r="O27" s="15"/>
-      <c r="P27" s="15"/>
-      <c r="Q27" s="15"/>
-      <c r="R27" s="15"/>
-      <c r="S27" s="15"/>
-      <c r="T27" s="15"/>
-      <c r="U27" s="15"/>
-      <c r="V27" s="15"/>
-      <c r="W27" s="15"/>
+      <c r="A27" s="33" t="s">
+        <v>91</v>
+      </c>
+      <c r="B27" s="20" t="s">
+        <v>113</v>
+      </c>
+      <c r="C27" s="33" t="s">
+        <v>114</v>
+      </c>
+      <c r="G27" s="38" t="s">
+        <v>115</v>
+      </c>
+      <c r="H27" s="39" t="s">
+        <v>116</v>
+      </c>
+      <c r="M27" s="35"/>
+      <c r="N27" s="35"/>
+      <c r="O27" s="35"/>
+      <c r="P27" s="35"/>
+      <c r="Q27" s="35"/>
+      <c r="R27" s="35"/>
+      <c r="S27" s="35"/>
+      <c r="T27" s="35"/>
+      <c r="U27" s="35"/>
+      <c r="V27" s="35"/>
+      <c r="W27" s="35"/>
     </row>
     <row r="28" ht="17.25" customHeight="1">
-      <c r="M28" s="15"/>
-      <c r="N28" s="15"/>
-      <c r="O28" s="15"/>
-      <c r="P28" s="15"/>
-      <c r="Q28" s="15"/>
-      <c r="R28" s="15"/>
-      <c r="S28" s="15"/>
-      <c r="T28" s="15"/>
-      <c r="U28" s="15"/>
-      <c r="V28" s="15"/>
-      <c r="W28" s="15"/>
+      <c r="A28" s="33" t="s">
+        <v>91</v>
+      </c>
+      <c r="B28" s="20" t="s">
+        <v>117</v>
+      </c>
+      <c r="C28" s="33" t="s">
+        <v>118</v>
+      </c>
+      <c r="G28" s="40" t="s">
+        <v>119</v>
+      </c>
+      <c r="H28" s="39" t="s">
+        <v>120</v>
+      </c>
+      <c r="M28" s="35"/>
+      <c r="N28" s="35"/>
+      <c r="O28" s="35"/>
+      <c r="P28" s="35"/>
+      <c r="Q28" s="35"/>
+      <c r="R28" s="35"/>
+      <c r="S28" s="35"/>
+      <c r="T28" s="35"/>
+      <c r="U28" s="35"/>
+      <c r="V28" s="35"/>
+      <c r="W28" s="35"/>
     </row>
     <row r="29">
-      <c r="M29" s="15"/>
-      <c r="N29" s="15"/>
-      <c r="O29" s="15"/>
-      <c r="P29" s="15"/>
-      <c r="Q29" s="15"/>
-      <c r="R29" s="15"/>
-      <c r="S29" s="15"/>
-      <c r="T29" s="15"/>
-      <c r="U29" s="15"/>
-      <c r="V29" s="15"/>
-      <c r="W29" s="15"/>
+      <c r="A29" s="33" t="s">
+        <v>91</v>
+      </c>
+      <c r="B29" s="20" t="s">
+        <v>121</v>
+      </c>
+      <c r="C29" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="M29" s="35"/>
+      <c r="N29" s="35"/>
+      <c r="O29" s="35"/>
+      <c r="P29" s="35"/>
+      <c r="Q29" s="35"/>
+      <c r="R29" s="35"/>
+      <c r="S29" s="35"/>
+      <c r="T29" s="35"/>
+      <c r="U29" s="35"/>
+      <c r="V29" s="35"/>
+      <c r="W29" s="35"/>
     </row>
     <row r="30">
-      <c r="M30" s="15"/>
-      <c r="N30" s="15"/>
-      <c r="O30" s="15"/>
-      <c r="P30" s="15"/>
-      <c r="Q30" s="15"/>
-      <c r="R30" s="15"/>
-      <c r="S30" s="15"/>
-      <c r="T30" s="15"/>
-      <c r="U30" s="15"/>
-      <c r="V30" s="15"/>
-      <c r="W30" s="15"/>
+      <c r="A30" s="33" t="s">
+        <v>91</v>
+      </c>
+      <c r="B30" s="20" t="s">
+        <v>122</v>
+      </c>
+      <c r="C30" s="33" t="s">
+        <v>123</v>
+      </c>
+      <c r="M30" s="35"/>
+      <c r="N30" s="35"/>
+      <c r="O30" s="35"/>
+      <c r="P30" s="35"/>
+      <c r="Q30" s="35"/>
+      <c r="R30" s="35"/>
+      <c r="S30" s="35"/>
+      <c r="T30" s="35"/>
+      <c r="U30" s="35"/>
+      <c r="V30" s="35"/>
+      <c r="W30" s="35"/>
     </row>
     <row r="31">
-      <c r="H31" s="15"/>
-      <c r="I31" s="15"/>
-      <c r="L31" s="15"/>
-      <c r="M31" s="15"/>
-      <c r="N31" s="15"/>
-      <c r="O31" s="15"/>
-      <c r="P31" s="15"/>
-      <c r="Q31" s="15"/>
-      <c r="R31" s="15"/>
-      <c r="S31" s="15"/>
-      <c r="T31" s="15"/>
-      <c r="U31" s="15"/>
-      <c r="V31" s="15"/>
-      <c r="W31" s="15"/>
+      <c r="H31" s="35"/>
+      <c r="I31" s="35"/>
+      <c r="L31" s="35"/>
+      <c r="M31" s="35"/>
+      <c r="N31" s="35"/>
+      <c r="O31" s="35"/>
+      <c r="P31" s="35"/>
+      <c r="Q31" s="35"/>
+      <c r="R31" s="35"/>
+      <c r="S31" s="35"/>
+      <c r="T31" s="35"/>
+      <c r="U31" s="35"/>
+      <c r="V31" s="35"/>
+      <c r="W31" s="35"/>
     </row>
     <row r="32">
-      <c r="A32" s="17"/>
-      <c r="B32" s="17"/>
-      <c r="C32" s="17"/>
-      <c r="G32" s="15"/>
-      <c r="H32" s="15"/>
-      <c r="I32" s="15"/>
-      <c r="J32" s="15"/>
-      <c r="K32" s="15"/>
-      <c r="L32" s="15"/>
-      <c r="M32" s="15"/>
-      <c r="N32" s="15"/>
-      <c r="O32" s="15"/>
-      <c r="P32" s="15"/>
-      <c r="Q32" s="15"/>
-      <c r="R32" s="15"/>
-      <c r="S32" s="15"/>
-      <c r="T32" s="15"/>
-      <c r="U32" s="15"/>
-      <c r="V32" s="15"/>
-      <c r="W32" s="15"/>
+      <c r="A32" s="20"/>
+      <c r="B32" s="20"/>
+      <c r="C32" s="20"/>
+      <c r="G32" s="35"/>
+      <c r="H32" s="35"/>
+      <c r="I32" s="35"/>
+      <c r="J32" s="35"/>
+      <c r="K32" s="35"/>
+      <c r="L32" s="35"/>
+      <c r="M32" s="35"/>
+      <c r="N32" s="35"/>
+      <c r="O32" s="35"/>
+      <c r="P32" s="35"/>
+      <c r="Q32" s="35"/>
+      <c r="R32" s="35"/>
+      <c r="S32" s="35"/>
+      <c r="T32" s="35"/>
+      <c r="U32" s="35"/>
+      <c r="V32" s="35"/>
+      <c r="W32" s="35"/>
     </row>
     <row r="33">
-      <c r="G33" s="15"/>
-      <c r="H33" s="15"/>
-      <c r="I33" s="15"/>
-      <c r="J33" s="15"/>
-      <c r="K33" s="15"/>
-      <c r="L33" s="15"/>
-      <c r="M33" s="15"/>
-      <c r="N33" s="15"/>
-      <c r="O33" s="15"/>
-      <c r="P33" s="15"/>
-      <c r="Q33" s="15"/>
-      <c r="R33" s="15"/>
-      <c r="S33" s="15"/>
-      <c r="T33" s="15"/>
-      <c r="U33" s="15"/>
-      <c r="V33" s="15"/>
-      <c r="W33" s="15"/>
+      <c r="G33" s="35"/>
+      <c r="H33" s="35"/>
+      <c r="I33" s="35"/>
+      <c r="J33" s="35"/>
+      <c r="K33" s="35"/>
+      <c r="L33" s="35"/>
+      <c r="M33" s="35"/>
+      <c r="N33" s="35"/>
+      <c r="O33" s="35"/>
+      <c r="P33" s="35"/>
+      <c r="Q33" s="35"/>
+      <c r="R33" s="35"/>
+      <c r="S33" s="35"/>
+      <c r="T33" s="35"/>
+      <c r="U33" s="35"/>
+      <c r="V33" s="35"/>
+      <c r="W33" s="35"/>
     </row>
     <row r="34">
-      <c r="G34" s="15"/>
-      <c r="H34" s="15"/>
-      <c r="I34" s="15"/>
-      <c r="J34" s="15"/>
-      <c r="K34" s="15"/>
-      <c r="L34" s="15"/>
-      <c r="M34" s="15"/>
-      <c r="N34" s="15"/>
-      <c r="O34" s="15"/>
-      <c r="P34" s="15"/>
-      <c r="Q34" s="15"/>
-      <c r="R34" s="15"/>
-      <c r="S34" s="15"/>
-      <c r="T34" s="15"/>
-      <c r="U34" s="15"/>
-      <c r="V34" s="15"/>
-      <c r="W34" s="15"/>
+      <c r="G34" s="35"/>
+      <c r="H34" s="35"/>
+      <c r="I34" s="35"/>
+      <c r="J34" s="35"/>
+      <c r="K34" s="35"/>
+      <c r="L34" s="35"/>
+      <c r="M34" s="35"/>
+      <c r="N34" s="35"/>
+      <c r="O34" s="35"/>
+      <c r="P34" s="35"/>
+      <c r="Q34" s="35"/>
+      <c r="R34" s="35"/>
+      <c r="S34" s="35"/>
+      <c r="T34" s="35"/>
+      <c r="U34" s="35"/>
+      <c r="V34" s="35"/>
+      <c r="W34" s="35"/>
     </row>
     <row r="35">
-      <c r="G35" s="15"/>
-      <c r="H35" s="15"/>
-      <c r="I35" s="15"/>
-      <c r="J35" s="15"/>
-      <c r="K35" s="15"/>
-      <c r="L35" s="15"/>
-      <c r="M35" s="15"/>
-      <c r="N35" s="15"/>
-      <c r="O35" s="15"/>
-      <c r="P35" s="15"/>
-      <c r="Q35" s="15"/>
-      <c r="R35" s="15"/>
-      <c r="S35" s="15"/>
-      <c r="T35" s="15"/>
-      <c r="U35" s="15"/>
-      <c r="V35" s="15"/>
-      <c r="W35" s="15"/>
+      <c r="G35" s="35"/>
+      <c r="H35" s="35"/>
+      <c r="I35" s="35"/>
+      <c r="J35" s="35"/>
+      <c r="K35" s="35"/>
+      <c r="L35" s="35"/>
+      <c r="M35" s="35"/>
+      <c r="N35" s="35"/>
+      <c r="O35" s="35"/>
+      <c r="P35" s="35"/>
+      <c r="Q35" s="35"/>
+      <c r="R35" s="35"/>
+      <c r="S35" s="35"/>
+      <c r="T35" s="35"/>
+      <c r="U35" s="35"/>
+      <c r="V35" s="35"/>
+      <c r="W35" s="35"/>
     </row>
     <row r="37">
-      <c r="A37" s="18" t="s">
-        <v>67</v>
-      </c>
-      <c r="B37" s="18" t="s">
-        <v>68</v>
-      </c>
-      <c r="C37" s="19" t="s">
-        <v>69</v>
-      </c>
-      <c r="D37" s="18" t="s">
-        <v>70</v>
-      </c>
-      <c r="F37" s="20" t="s">
-        <v>71</v>
-      </c>
-      <c r="G37" s="20" t="s">
-        <v>72</v>
-      </c>
-      <c r="H37" s="20" t="s">
-        <v>70</v>
-      </c>
-      <c r="J37" s="21" t="s">
-        <v>73</v>
-      </c>
-      <c r="K37" s="22" t="s">
-        <v>74</v>
+      <c r="A37" s="41" t="s">
+        <v>124</v>
+      </c>
+      <c r="B37" s="42" t="s">
+        <v>125</v>
+      </c>
+      <c r="C37" s="43" t="s">
+        <v>126</v>
+      </c>
+      <c r="D37" s="42" t="s">
+        <v>127</v>
+      </c>
+      <c r="F37" s="44" t="s">
+        <v>128</v>
+      </c>
+      <c r="G37" s="45" t="s">
+        <v>129</v>
+      </c>
+      <c r="H37" s="45" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="23" t="s">
+      <c r="A38" s="46" t="s">
         <v>54</v>
       </c>
-      <c r="B38" s="23" t="s">
-        <v>75</v>
-      </c>
-      <c r="C38" s="24" t="s">
-        <v>76</v>
-      </c>
-      <c r="D38" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="F38" s="20" t="s">
-        <v>78</v>
-      </c>
-      <c r="G38" s="26">
+      <c r="B38" s="46" t="s">
+        <v>130</v>
+      </c>
+      <c r="C38" s="47"/>
+      <c r="D38" s="48" t="s">
+        <v>131</v>
+      </c>
+      <c r="F38" s="45" t="s">
+        <v>132</v>
+      </c>
+      <c r="G38" s="49">
         <v>70.0</v>
       </c>
-      <c r="H38" s="27" t="s">
-        <v>77</v>
-      </c>
-      <c r="J38" s="21" t="s">
-        <v>79</v>
-      </c>
-      <c r="K38" s="22" t="s">
-        <v>80</v>
+      <c r="H38" s="50" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="23" t="s">
+      <c r="A39" s="46" t="s">
         <v>55</v>
       </c>
-      <c r="B39" s="23">
+      <c r="B39" s="46">
         <v>0.0</v>
       </c>
-      <c r="C39" s="28" t="s">
-        <v>76</v>
-      </c>
-      <c r="D39" s="12"/>
-      <c r="F39" s="20" t="s">
-        <v>81</v>
-      </c>
-      <c r="G39" s="27">
+      <c r="C39" s="51" t="s">
+        <v>133</v>
+      </c>
+      <c r="D39" s="21"/>
+      <c r="F39" s="45" t="s">
+        <v>89</v>
+      </c>
+      <c r="G39" s="50">
         <v>15.0</v>
       </c>
-      <c r="H39" s="29"/>
-      <c r="J39" s="30"/>
-      <c r="K39" s="30"/>
+      <c r="H39" s="52"/>
+      <c r="J39" s="53"/>
+      <c r="K39" s="53"/>
     </row>
     <row r="40">
-      <c r="A40" s="23" t="s">
+      <c r="A40" s="46" t="s">
         <v>56</v>
       </c>
-      <c r="B40" s="23">
+      <c r="B40" s="46">
         <v>25.0</v>
       </c>
-      <c r="C40" s="28" t="s">
-        <v>76</v>
-      </c>
-      <c r="D40" s="12"/>
-      <c r="F40" s="20" t="s">
-        <v>82</v>
-      </c>
-      <c r="G40" s="27">
+      <c r="C40" s="51"/>
+      <c r="D40" s="21"/>
+      <c r="F40" s="45" t="s">
+        <v>84</v>
+      </c>
+      <c r="G40" s="50">
         <v>15.0</v>
       </c>
-      <c r="H40" s="29"/>
-      <c r="J40" s="30"/>
-      <c r="K40" s="30"/>
+      <c r="H40" s="52"/>
+      <c r="J40" s="53"/>
+      <c r="K40" s="53"/>
     </row>
     <row r="41">
-      <c r="A41" s="23" t="s">
+      <c r="A41" s="46" t="s">
         <v>65</v>
       </c>
-      <c r="B41" s="23">
+      <c r="B41" s="46">
         <v>35.0</v>
       </c>
-      <c r="C41" s="31"/>
-      <c r="J41" s="30"/>
-      <c r="K41" s="30"/>
+      <c r="C41" s="54"/>
+      <c r="J41" s="53"/>
+      <c r="K41" s="53"/>
     </row>
     <row r="42">
-      <c r="A42" s="23" t="s">
+      <c r="A42" s="46" t="s">
         <v>66</v>
       </c>
-      <c r="B42" s="23">
+      <c r="B42" s="46">
         <v>44.0</v>
       </c>
-      <c r="C42" s="31"/>
-      <c r="J42" s="30"/>
-      <c r="K42" s="30"/>
+      <c r="C42" s="54"/>
+      <c r="J42" s="53"/>
+      <c r="K42" s="53"/>
     </row>
     <row r="43">
-      <c r="A43" s="23" t="s">
-        <v>83</v>
-      </c>
-      <c r="B43" s="23">
+      <c r="A43" s="46" t="s">
+        <v>134</v>
+      </c>
+      <c r="B43" s="46">
         <v>52.0</v>
       </c>
-      <c r="C43" s="25"/>
-      <c r="D43" s="14"/>
-      <c r="E43" s="14"/>
-      <c r="F43" s="14"/>
-      <c r="G43" s="15"/>
-      <c r="J43" s="30"/>
-      <c r="K43" s="30"/>
+      <c r="C43" s="48"/>
+      <c r="D43" s="32"/>
+      <c r="E43" s="32"/>
+      <c r="F43" s="32"/>
+      <c r="G43" s="35"/>
+      <c r="J43" s="53"/>
+      <c r="K43" s="53"/>
     </row>
     <row r="44">
-      <c r="A44" s="23">
+      <c r="A44" s="46">
         <v>1.0</v>
       </c>
-      <c r="B44" s="23">
+      <c r="B44" s="46">
         <v>55.0</v>
       </c>
-      <c r="C44" s="25"/>
-      <c r="D44" s="14"/>
-      <c r="E44" s="15"/>
-      <c r="F44" s="15"/>
-      <c r="G44" s="15"/>
-      <c r="J44" s="30"/>
-      <c r="K44" s="30"/>
+      <c r="C44" s="48"/>
+      <c r="D44" s="32"/>
+      <c r="E44" s="35"/>
+      <c r="F44" s="35"/>
+      <c r="G44" s="35"/>
+      <c r="J44" s="53"/>
+      <c r="K44" s="53"/>
     </row>
     <row r="45">
-      <c r="A45" s="23" t="s">
-        <v>84</v>
-      </c>
-      <c r="B45" s="23">
+      <c r="A45" s="46" t="s">
+        <v>135</v>
+      </c>
+      <c r="B45" s="46">
         <v>58.0</v>
       </c>
-      <c r="C45" s="25"/>
-      <c r="D45" s="15"/>
-      <c r="J45" s="30"/>
-      <c r="K45" s="30"/>
+      <c r="C45" s="48"/>
+      <c r="D45" s="35"/>
+      <c r="J45" s="53"/>
+      <c r="K45" s="53"/>
     </row>
     <row r="46">
-      <c r="A46" s="23" t="s">
+      <c r="A46" s="46" t="s">
         <v>59</v>
       </c>
-      <c r="B46" s="23">
+      <c r="B46" s="46">
         <v>62.0</v>
       </c>
-      <c r="C46" s="25"/>
-      <c r="D46" s="15"/>
-      <c r="J46" s="30"/>
-      <c r="K46" s="30"/>
+      <c r="C46" s="48"/>
+      <c r="D46" s="35"/>
+      <c r="J46" s="53"/>
+      <c r="K46" s="53"/>
     </row>
     <row r="47">
-      <c r="A47" s="23">
+      <c r="A47" s="46">
         <v>2.0</v>
       </c>
-      <c r="B47" s="23">
+      <c r="B47" s="46">
         <v>65.0</v>
       </c>
-      <c r="C47" s="25"/>
-      <c r="D47" s="15"/>
-      <c r="J47" s="30"/>
-      <c r="K47" s="30"/>
+      <c r="C47" s="48"/>
+      <c r="D47" s="35"/>
+      <c r="J47" s="53"/>
+      <c r="K47" s="53"/>
     </row>
     <row r="48">
-      <c r="A48" s="23" t="s">
+      <c r="A48" s="46" t="s">
         <v>60</v>
       </c>
-      <c r="B48" s="23">
+      <c r="B48" s="46">
         <v>68.0</v>
       </c>
-      <c r="C48" s="31"/>
-      <c r="D48" s="15"/>
-      <c r="J48" s="30"/>
-      <c r="K48" s="30"/>
+      <c r="C48" s="54"/>
+      <c r="D48" s="35"/>
+      <c r="J48" s="53"/>
+      <c r="K48" s="53"/>
     </row>
     <row r="49">
-      <c r="A49" s="23" t="s">
+      <c r="A49" s="46" t="s">
         <v>49</v>
       </c>
-      <c r="B49" s="23">
+      <c r="B49" s="46">
         <v>72.0</v>
       </c>
-      <c r="C49" s="25"/>
-      <c r="D49" s="15"/>
-      <c r="E49" s="15"/>
-      <c r="F49" s="15"/>
-      <c r="J49" s="30"/>
-      <c r="K49" s="30"/>
+      <c r="C49" s="48"/>
+      <c r="D49" s="35"/>
+      <c r="E49" s="35"/>
+      <c r="F49" s="35"/>
+      <c r="J49" s="53"/>
+      <c r="K49" s="53"/>
     </row>
     <row r="50">
-      <c r="A50" s="23">
+      <c r="A50" s="46">
         <v>3.0</v>
       </c>
-      <c r="B50" s="23">
+      <c r="B50" s="46">
         <v>75.0</v>
       </c>
-      <c r="C50" s="25"/>
-      <c r="D50" s="15"/>
-      <c r="E50" s="15"/>
-      <c r="F50" s="15"/>
-      <c r="J50" s="30"/>
-      <c r="K50" s="30"/>
+      <c r="C50" s="48"/>
+      <c r="D50" s="35"/>
+      <c r="E50" s="35"/>
+      <c r="F50" s="35"/>
+      <c r="J50" s="53"/>
+      <c r="K50" s="53"/>
     </row>
     <row r="51">
-      <c r="A51" s="23" t="s">
+      <c r="A51" s="46" t="s">
         <v>58</v>
       </c>
-      <c r="B51" s="23">
+      <c r="B51" s="46">
         <v>78.0</v>
       </c>
-      <c r="C51" s="25"/>
-      <c r="D51" s="15"/>
-      <c r="E51" s="15"/>
-      <c r="F51" s="15"/>
-      <c r="J51" s="30"/>
-      <c r="K51" s="30"/>
+      <c r="C51" s="48"/>
+      <c r="D51" s="35"/>
+      <c r="E51" s="35"/>
+      <c r="F51" s="35"/>
+      <c r="J51" s="53"/>
+      <c r="K51" s="53"/>
     </row>
     <row r="52">
-      <c r="A52" s="32" t="s">
+      <c r="A52" s="55" t="s">
         <v>52</v>
       </c>
-      <c r="B52" s="32">
+      <c r="B52" s="55">
         <v>80.0</v>
       </c>
-      <c r="C52" s="33" t="s">
-        <v>76</v>
-      </c>
-      <c r="E52" s="15"/>
-      <c r="F52" s="15"/>
-      <c r="J52" s="30"/>
-      <c r="K52" s="30"/>
+      <c r="C52" s="56" t="s">
+        <v>133</v>
+      </c>
+      <c r="E52" s="35"/>
+      <c r="F52" s="35"/>
+      <c r="J52" s="53"/>
+      <c r="K52" s="53"/>
     </row>
     <row r="53">
-      <c r="A53" s="23" t="s">
+      <c r="A53" s="46" t="s">
         <v>47</v>
       </c>
-      <c r="B53" s="23">
+      <c r="B53" s="46">
         <v>86.0</v>
       </c>
-      <c r="C53" s="25"/>
-      <c r="E53" s="15"/>
-      <c r="F53" s="15"/>
-      <c r="J53" s="30"/>
-      <c r="K53" s="30"/>
+      <c r="C53" s="48"/>
+      <c r="D53" s="57"/>
+      <c r="E53" s="35"/>
+      <c r="F53" s="35"/>
+      <c r="J53" s="53"/>
+      <c r="K53" s="53"/>
     </row>
     <row r="54">
-      <c r="A54" s="13" t="s">
+      <c r="A54" s="47" t="s">
         <v>61</v>
       </c>
-      <c r="B54" s="13">
+      <c r="B54" s="47">
         <v>89.0</v>
       </c>
-      <c r="E54" s="15"/>
-      <c r="F54" s="15"/>
-      <c r="J54" s="30"/>
-      <c r="K54" s="30"/>
+      <c r="C54" s="57"/>
+      <c r="D54" s="57"/>
+      <c r="E54" s="35"/>
+      <c r="F54" s="35"/>
+      <c r="J54" s="53"/>
+      <c r="K54" s="53"/>
     </row>
     <row r="55">
-      <c r="A55" s="32">
+      <c r="A55" s="55">
         <v>4.0</v>
       </c>
-      <c r="B55" s="32">
+      <c r="B55" s="55">
         <v>91.0</v>
       </c>
-      <c r="C55" s="25"/>
-      <c r="E55" s="15"/>
-      <c r="F55" s="15"/>
+      <c r="C55" s="48"/>
+      <c r="E55" s="35"/>
+      <c r="F55" s="35"/>
     </row>
     <row r="56">
-      <c r="A56" s="34" t="s">
+      <c r="A56" s="58" t="s">
         <v>53</v>
       </c>
-      <c r="B56" s="23">
+      <c r="B56" s="46">
         <v>94.0</v>
       </c>
-      <c r="C56" s="33" t="s">
-        <v>76</v>
+      <c r="C56" s="56" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="34" t="s">
+      <c r="A57" s="58" t="s">
         <v>50</v>
       </c>
-      <c r="B57" s="35" t="s">
-        <v>85</v>
-      </c>
-      <c r="C57" s="36"/>
+      <c r="B57" s="59" t="s">
+        <v>136</v>
+      </c>
+      <c r="C57" s="60"/>
     </row>
     <row r="58">
-      <c r="A58" s="34" t="s">
+      <c r="A58" s="58" t="s">
         <v>51</v>
       </c>
-      <c r="B58" s="35" t="s">
-        <v>86</v>
-      </c>
-      <c r="C58" s="24" t="s">
-        <v>76</v>
+      <c r="B58" s="59" t="s">
+        <v>137</v>
+      </c>
+      <c r="C58" s="47" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="59">
-      <c r="A59" s="37"/>
-      <c r="B59" s="38"/>
-      <c r="C59" s="36"/>
+      <c r="A59" s="61"/>
+      <c r="B59" s="62"/>
+      <c r="C59" s="60"/>
     </row>
     <row r="60">
-      <c r="A60" s="39" t="s">
-        <v>87</v>
-      </c>
-      <c r="B60" s="40" t="s">
-        <v>88</v>
-      </c>
-      <c r="C60" s="39" t="s">
-        <v>89</v>
-      </c>
-      <c r="F60" s="41" t="s">
-        <v>90</v>
-      </c>
-      <c r="G60" s="41" t="s">
-        <v>91</v>
-      </c>
-      <c r="H60" s="41" t="s">
-        <v>92</v>
-      </c>
-      <c r="K60" s="42" t="s">
-        <v>93</v>
-      </c>
-      <c r="L60" s="43" t="s">
-        <v>94</v>
-      </c>
+      <c r="A60" s="16"/>
+      <c r="B60" s="15"/>
+      <c r="C60" s="16"/>
+      <c r="K60" s="24"/>
+      <c r="L60" s="63"/>
     </row>
     <row r="61">
-      <c r="A61" s="44" t="s">
-        <v>95</v>
-      </c>
-      <c r="B61" s="45">
-        <v>15.0</v>
-      </c>
-      <c r="C61" s="45" t="s">
-        <v>96</v>
-      </c>
-      <c r="F61" s="17" t="s">
-        <v>95</v>
-      </c>
-      <c r="G61" s="41" t="s">
-        <v>97</v>
-      </c>
-      <c r="H61" s="17" t="s">
-        <v>98</v>
-      </c>
-      <c r="K61" s="46" t="s">
-        <v>99</v>
-      </c>
-      <c r="L61" s="47" t="s">
-        <v>100</v>
-      </c>
+      <c r="A61" s="22"/>
+      <c r="B61" s="23"/>
+      <c r="C61" s="23"/>
+      <c r="K61" s="30"/>
+      <c r="L61" s="64"/>
     </row>
     <row r="62">
-      <c r="A62" s="44" t="s">
-        <v>101</v>
-      </c>
-      <c r="B62" s="45">
-        <v>35.0</v>
-      </c>
-      <c r="C62" s="45" t="s">
-        <v>102</v>
-      </c>
-      <c r="F62" s="17" t="s">
-        <v>101</v>
-      </c>
-      <c r="G62" s="41" t="s">
-        <v>97</v>
-      </c>
-      <c r="H62" s="17" t="s">
-        <v>103</v>
-      </c>
-      <c r="K62" s="46" t="s">
-        <v>82</v>
-      </c>
-      <c r="L62" s="48" t="s">
-        <v>104</v>
-      </c>
+      <c r="A62" s="22"/>
+      <c r="B62" s="23"/>
+      <c r="C62" s="23"/>
+      <c r="K62" s="30"/>
+      <c r="L62" s="65"/>
     </row>
     <row r="63">
-      <c r="A63" s="44" t="s">
-        <v>105</v>
-      </c>
-      <c r="B63" s="45">
-        <v>45.0</v>
-      </c>
-      <c r="C63" s="45" t="s">
-        <v>106</v>
-      </c>
-      <c r="F63" s="17" t="s">
-        <v>105</v>
-      </c>
-      <c r="G63" s="41" t="s">
-        <v>97</v>
-      </c>
-      <c r="H63" s="17" t="s">
-        <v>107</v>
-      </c>
-      <c r="K63" s="46" t="s">
-        <v>81</v>
-      </c>
-      <c r="L63" s="49" t="s">
-        <v>108</v>
-      </c>
+      <c r="A63" s="22"/>
+      <c r="B63" s="23"/>
+      <c r="C63" s="23"/>
+      <c r="K63" s="30"/>
+      <c r="L63" s="66"/>
     </row>
     <row r="64">
-      <c r="A64" s="44" t="s">
-        <v>109</v>
-      </c>
-      <c r="B64" s="45">
-        <v>5.0</v>
-      </c>
-      <c r="C64" s="45" t="s">
-        <v>110</v>
-      </c>
-      <c r="F64" s="17" t="s">
-        <v>109</v>
-      </c>
-      <c r="G64" s="41" t="s">
-        <v>97</v>
-      </c>
-      <c r="H64" s="17" t="s">
-        <v>111</v>
-      </c>
-      <c r="K64" s="46" t="s">
-        <v>112</v>
-      </c>
-      <c r="L64" s="50" t="s">
-        <v>29</v>
-      </c>
+      <c r="A64" s="22"/>
+      <c r="B64" s="23"/>
+      <c r="C64" s="23"/>
+      <c r="K64" s="30"/>
+      <c r="L64" s="31"/>
     </row>
     <row r="65">
-      <c r="F65" s="17" t="s">
-        <v>95</v>
-      </c>
-      <c r="G65" s="17" t="s">
-        <v>113</v>
-      </c>
-      <c r="H65" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="K65" s="46" t="s">
-        <v>114</v>
-      </c>
-      <c r="L65" s="51" t="s">
-        <v>54</v>
-      </c>
+      <c r="K65" s="30"/>
+      <c r="L65" s="34"/>
     </row>
     <row r="66">
-      <c r="F66" s="17" t="s">
-        <v>95</v>
-      </c>
-      <c r="G66" s="17" t="s">
-        <v>115</v>
-      </c>
-      <c r="H66" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="K66" s="46" t="s">
-        <v>116</v>
-      </c>
-      <c r="L66" s="51" t="s">
-        <v>28</v>
-      </c>
+      <c r="K66" s="30"/>
+      <c r="L66" s="34"/>
     </row>
     <row r="67">
-      <c r="F67" s="17" t="s">
-        <v>95</v>
-      </c>
-      <c r="G67" s="17" t="s">
-        <v>117</v>
-      </c>
-      <c r="H67" s="17" t="s">
-        <v>118</v>
-      </c>
-      <c r="K67" s="46" t="s">
-        <v>119</v>
-      </c>
-      <c r="L67" s="51" t="s">
-        <v>120</v>
-      </c>
+      <c r="K67" s="30"/>
+      <c r="L67" s="34"/>
     </row>
     <row r="68">
-      <c r="F68" s="52" t="s">
-        <v>101</v>
-      </c>
-      <c r="G68" s="17" t="s">
-        <v>121</v>
-      </c>
-      <c r="H68" s="52" t="s">
-        <v>18</v>
-      </c>
-      <c r="K68" s="46" t="s">
-        <v>122</v>
-      </c>
-      <c r="L68" s="53" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="F69" s="52" t="s">
-        <v>101</v>
-      </c>
-      <c r="G69" s="17" t="s">
-        <v>123</v>
-      </c>
-      <c r="H69" s="52" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="F70" s="52" t="s">
-        <v>101</v>
-      </c>
-      <c r="G70" s="17" t="s">
-        <v>124</v>
-      </c>
-      <c r="H70" s="52" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="F71" s="52" t="s">
-        <v>101</v>
-      </c>
-      <c r="G71" s="17" t="s">
-        <v>125</v>
-      </c>
-      <c r="H71" s="52" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="F72" s="52" t="s">
-        <v>105</v>
-      </c>
-      <c r="G72" s="17" t="s">
-        <v>127</v>
-      </c>
-      <c r="H72" s="52" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="F73" s="52" t="s">
-        <v>105</v>
-      </c>
-      <c r="G73" s="17" t="s">
-        <v>128</v>
-      </c>
-      <c r="H73" s="52" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="F74" s="52" t="s">
-        <v>105</v>
-      </c>
-      <c r="G74" s="17" t="s">
-        <v>129</v>
-      </c>
-      <c r="H74" s="52" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="F75" s="52" t="s">
-        <v>105</v>
-      </c>
-      <c r="G75" s="17" t="s">
-        <v>130</v>
-      </c>
-      <c r="H75" s="52" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="F76" s="52" t="s">
-        <v>109</v>
-      </c>
-      <c r="G76" s="17" t="s">
-        <v>131</v>
-      </c>
-      <c r="H76" s="52" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="F77" s="52" t="s">
-        <v>109</v>
-      </c>
-      <c r="G77" s="17" t="s">
-        <v>133</v>
-      </c>
-      <c r="H77" s="52" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="78">
-      <c r="F78" s="52" t="s">
-        <v>109</v>
-      </c>
-      <c r="G78" s="17" t="s">
-        <v>135</v>
-      </c>
-      <c r="H78" s="52" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="79">
-      <c r="F79" s="52" t="s">
-        <v>109</v>
-      </c>
-      <c r="G79" s="17" t="s">
-        <v>136</v>
-      </c>
-      <c r="H79" s="52" t="s">
-        <v>137</v>
-      </c>
+      <c r="K68" s="30"/>
+      <c r="L68" s="36"/>
     </row>
     <row r="83">
-      <c r="B83" s="54"/>
-      <c r="C83" s="54"/>
-      <c r="D83" s="54"/>
-      <c r="E83" s="54"/>
+      <c r="B83" s="67"/>
+      <c r="C83" s="67"/>
+      <c r="D83" s="67"/>
+      <c r="E83" s="67"/>
     </row>
     <row r="84">
-      <c r="B84" s="55"/>
-      <c r="C84" s="56"/>
-      <c r="D84" s="55"/>
+      <c r="B84" s="68"/>
+      <c r="C84" s="69"/>
+      <c r="D84" s="68"/>
     </row>
     <row r="85">
-      <c r="B85" s="56"/>
-      <c r="C85" s="56"/>
+      <c r="B85" s="69"/>
+      <c r="C85" s="69"/>
     </row>
     <row r="86">
-      <c r="B86" s="55"/>
+      <c r="B86" s="68"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
